--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_18_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_18_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1270519.776026371</v>
+        <v>1206619.634837958</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6185234.546416958</v>
+        <v>6185234.546416957</v>
       </c>
     </row>
     <row r="11">
@@ -1378,59 +1378,59 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>197.622120845902</v>
       </c>
       <c r="F11" t="n">
         <v>197.622120845902</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>124.1242832441619</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>9.170483847616794</v>
+      </c>
+      <c r="S11" t="n">
+        <v>40.77079694929169</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>197.622120845902</v>
       </c>
-      <c r="H11" t="n">
-        <v>174.0655640410705</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>197.622120845902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,25 +1451,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>136.145094685459</v>
       </c>
       <c r="H12" t="n">
-        <v>100.6612060961061</v>
+        <v>39.12547354918118</v>
       </c>
       <c r="I12" t="n">
-        <v>48.13515719198531</v>
+        <v>48.1351571919853</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>25.75051575329434</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1508,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>197.622120845902</v>
       </c>
       <c r="W12" t="n">
-        <v>179.2761757564412</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>84.38833704390061</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>22.32567777239203</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.030682817957725</v>
+        <v>2.030682817957711</v>
       </c>
       <c r="R13" t="n">
         <v>132.1176548984743</v>
@@ -1581,13 +1581,13 @@
         <v>197.622120845902</v>
       </c>
       <c r="T13" t="n">
-        <v>197.622120845902</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>197.622120845902</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>39.91722632463833</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>174.0655640410704</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>197.6221208459019</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>197.6221208459019</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>197.6221208459019</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>124.1242832441619</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>9.170483847616794</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>197.6221208459019</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>197.6221208459019</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>40.77079694929163</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1688,16 +1688,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>159.6178657291682</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>136.145094685459</v>
@@ -1706,7 +1706,7 @@
         <v>100.6612060961061</v>
       </c>
       <c r="I15" t="n">
-        <v>48.1351571919853</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>25.75051575329434</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>149.4229992034958</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>195.3342451112527</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>179.276175756441</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>125.2358901574395</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>2.030682817957711</v>
       </c>
       <c r="R16" t="n">
-        <v>132.1176548984743</v>
+        <v>115.7772899289705</v>
       </c>
       <c r="S16" t="n">
         <v>197.6221208459019</v>
       </c>
       <c r="T16" t="n">
-        <v>197.6221208459019</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>197.6221208459019</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>39.91722632463833</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1849,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>6.915467883890505</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>197.6221208459019</v>
+        <v>197.622120845902</v>
       </c>
       <c r="G17" t="n">
-        <v>197.6221208459019</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>174.0655640410703</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>9.170483847616765</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>157.9796123095632</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>197.622120845902</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>197.622120845902</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>197.6221208459019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>100.6612060961061</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>48.1351571919853</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.75051575329434</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>149.4229992034958</v>
       </c>
       <c r="T18" t="n">
-        <v>195.3342451112527</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>197.6221208459019</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>50.00568237673998</v>
+        <v>24.64256483757458</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>197.622120845902</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>197.622120845902</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>197.622120845902</v>
       </c>
     </row>
     <row r="19">
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>38.56138102011154</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>153.2943236849236</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>174.0655640410704</v>
+        <v>197.622120845902</v>
       </c>
       <c r="T19" t="n">
-        <v>197.6221208459019</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>197.6221208459019</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>197.6221208459019</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>197.622120845902</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>197.6221208459019</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>197.6221208459019</v>
+        <v>6.915467883890421</v>
       </c>
       <c r="D20" t="n">
-        <v>174.0655640410704</v>
+        <v>197.622120845902</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>197.622120845902</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>9.170483847616794</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>157.9796123095633</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>197.622120845902</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>197.6221208459019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>26.93044057222372</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>7.532380391203104</v>
       </c>
       <c r="S21" t="n">
-        <v>149.4229992034958</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>195.3342451112527</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>197.6221208459019</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>197.622120845902</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>197.622120845902</v>
       </c>
       <c r="Y21" t="n">
-        <v>197.6221208459019</v>
+        <v>197.622120845902</v>
       </c>
     </row>
     <row r="22">
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>172.0348812231127</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>2.030682817957711</v>
       </c>
       <c r="R22" t="n">
-        <v>132.1176548984743</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>197.622120845902</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>197.622120845902</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>159.9328558335828</v>
+        <v>197.622120845902</v>
       </c>
     </row>
     <row r="23">
@@ -2323,67 +2323,67 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>157.9796123095633</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>240.3718616686394</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
+      <c r="V23" t="n">
+        <v>53.73992344817414</v>
+      </c>
+      <c r="W23" t="n">
         <v>240.3718616686394</v>
       </c>
-      <c r="I23" t="n">
-        <v>124.1242832441619</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>114.6761840576306</v>
-      </c>
-      <c r="T23" t="n">
-        <v>213.2909301245844</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>240.3718616686394</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2399,25 +2399,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>102.7622154089874</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>100.6612060961061</v>
       </c>
       <c r="I24" t="n">
-        <v>48.1351571919853</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,13 +2447,13 @@
         <v>25.75051575329434</v>
       </c>
       <c r="S24" t="n">
-        <v>149.4229992034958</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>195.3342451112527</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>160.9741527355112</v>
+        <v>225.8625384969122</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.2943236849236</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>125.2358901574395</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>24.94571056580144</v>
+        <v>46.5497618554023</v>
       </c>
       <c r="U25" t="n">
         <v>240.3718616686394</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>240.3718616686394</v>
       </c>
       <c r="W25" t="n">
-        <v>240.3718616686394</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>240.3718616686394</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>240.3718616686394</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>53.73992344817414</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>9.170483847616794</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>157.9796123095633</v>
       </c>
       <c r="T26" t="n">
-        <v>213.2909301245844</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>240.3718616686394</v>
-      </c>
-      <c r="V26" t="n">
-        <v>240.3718616686394</v>
-      </c>
-      <c r="W26" t="n">
-        <v>71.65037114461234</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,25 +2636,25 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>91.61992784602266</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>100.6612060961061</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>48.1351571919853</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2687,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>195.3342451112527</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>8.152015808714721</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>3.108918106616654</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>80.32766252986025</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>223.6527070698127</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>71.65037114461225</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>240.3718616686394</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>124.1242832441619</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>9.170483847616794</v>
       </c>
       <c r="S29" t="n">
         <v>157.9796123095633</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>213.2909301245844</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>240.3718616686394</v>
       </c>
       <c r="X29" t="n">
-        <v>169.9875018726518</v>
+        <v>240.3718616686394</v>
       </c>
       <c r="Y29" t="n">
-        <v>240.3718616686394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2873,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>152.8125609257318</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>100.6612060961061</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>48.1351571919853</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,25 +2921,25 @@
         <v>25.75051575329434</v>
       </c>
       <c r="S30" t="n">
-        <v>149.4229992034958</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>195.3342451112527</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>176.0885895908671</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>240.3718616686394</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>148.5299661295481</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.986262210732</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.2943236849236</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2994,25 +2994,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>2.030682817957711</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>64.26780491684858</v>
       </c>
       <c r="T31" t="n">
-        <v>223.6527070698127</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>240.3718616686394</v>
       </c>
       <c r="V31" t="n">
         <v>240.3718616686394</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>240.3718616686394</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>240.3718616686394</v>
       </c>
       <c r="E32" t="n">
-        <v>240.3718616686394</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>240.3718616686394</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>44.5694396005573</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
+        <v>44.5694396005573</v>
+      </c>
+      <c r="W32" t="n">
         <v>240.3718616686394</v>
       </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>240.3718616686394</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,13 +3110,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>123.7163302895236</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -3125,7 +3125,7 @@
         <v>136.145094685459</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>100.6612060961061</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>25.75051575329434</v>
       </c>
       <c r="S33" t="n">
-        <v>149.4229992034958</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>58.97469166986048</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.8625384969122</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>240.3718616686394</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>153.2943236849236</v>
       </c>
       <c r="I34" t="n">
-        <v>125.2358901574395</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>28.21681294243217</v>
+        <v>80.32766252986013</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>240.3718616686394</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>197.622120845902</v>
       </c>
       <c r="C35" t="n">
-        <v>197.622120845902</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>40.77079694929179</v>
       </c>
       <c r="F35" t="n">
         <v>197.622120845902</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>6.91546788389039</v>
+        <v>124.1242832441619</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>9.170483847616794</v>
       </c>
       <c r="S35" t="n">
-        <v>157.9796123095633</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>197.622120845902</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>79.96626738378784</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3356,13 +3356,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.145094685459</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>100.6612060961061</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>122.6000979205538</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>118.2038874829711</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.986262210732</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>153.2943236849236</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>25.45009102285811</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>197.622120845902</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>197.622120845902</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>197.622120845902</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>164.8950801934537</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>197.622120845902</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>9.170483847616794</v>
       </c>
       <c r="S38" t="n">
-        <v>157.9796123095633</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>197.622120845902</v>
       </c>
       <c r="U38" t="n">
-        <v>6.915467883890421</v>
+        <v>197.622120845902</v>
       </c>
       <c r="V38" t="n">
-        <v>197.622120845902</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>197.622120845902</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3581,22 +3581,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.145094685459</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,22 +3629,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>25.75051575329434</v>
       </c>
       <c r="S39" t="n">
-        <v>71.26126777283703</v>
+        <v>68.17251265593789</v>
       </c>
       <c r="T39" t="n">
-        <v>195.3342451112527</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
         <v>197.622120845902</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.986262210732</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.2943236849236</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>2.030682817957711</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>174.0655640410705</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>197.622120845902</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>197.622120845902</v>
       </c>
       <c r="W40" t="n">
-        <v>197.622120845902</v>
+        <v>101.5774889963298</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>197.622120845902</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
         <v>197.622120845902</v>
       </c>
-      <c r="D41" t="n">
-        <v>6.915467883890392</v>
-      </c>
       <c r="E41" t="n">
-        <v>197.622120845902</v>
+        <v>16.08595173150723</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>9.170483847616794</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>157.9796123095633</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>197.622120845902</v>
       </c>
       <c r="U41" t="n">
-        <v>197.622120845902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>136.145094685459</v>
@@ -3869,16 +3869,16 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>40.20834509026064</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>195.3342451112527</v>
       </c>
       <c r="U42" t="n">
-        <v>90.47337780812961</v>
+        <v>197.622120845902</v>
       </c>
       <c r="V42" t="n">
-        <v>197.622120845902</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>197.622120845902</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>123.7933296797794</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.986262210732</v>
       </c>
       <c r="H43" t="n">
-        <v>153.2943236849236</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>125.2358901574395</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>197.622120845902</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>197.622120845902</v>
+        <v>109.8408322660751</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3985,10 +3985,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>174.0655640410705</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>197.622120845902</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>197.622120845902</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>9.170483847616794</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>157.9796123095633</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>6.915467883890421</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>197.622120845902</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>197.622120845902</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4067,13 +4067,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.145094685459</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>92.7612535427788</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>195.3342451112527</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4118,13 +4118,13 @@
         <v>197.622120845902</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>197.622120845902</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>197.622120845902</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>174.0655640410705</v>
       </c>
     </row>
     <row r="46">
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>93.15747104460942</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>153.2943236849236</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>125.2358901574395</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4179,19 +4179,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>2.030682817957711</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>172.0348812231127</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>197.622120845902</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>590.8701794988585</v>
+        <v>540.4244413201629</v>
       </c>
       <c r="C11" t="n">
-        <v>590.8701794988585</v>
+        <v>540.4244413201629</v>
       </c>
       <c r="D11" t="n">
-        <v>590.8701794988585</v>
+        <v>540.4244413201629</v>
       </c>
       <c r="E11" t="n">
-        <v>590.8701794988585</v>
+        <v>340.8061374354135</v>
       </c>
       <c r="F11" t="n">
-        <v>391.2518756141091</v>
+        <v>141.187833550664</v>
       </c>
       <c r="G11" t="n">
-        <v>191.6335717293595</v>
+        <v>141.187833550664</v>
       </c>
       <c r="H11" t="n">
-        <v>15.80976966767216</v>
+        <v>141.187833550664</v>
       </c>
       <c r="I11" t="n">
         <v>15.80976966767216</v>
       </c>
       <c r="J11" t="n">
-        <v>24.77728899937063</v>
+        <v>24.77728899937077</v>
       </c>
       <c r="K11" t="n">
-        <v>88.95579413398616</v>
+        <v>88.95579413398585</v>
       </c>
       <c r="L11" t="n">
-        <v>205.4766666630396</v>
+        <v>205.4766666630392</v>
       </c>
       <c r="M11" t="n">
-        <v>366.7980259642593</v>
+        <v>366.7980259642588</v>
       </c>
       <c r="N11" t="n">
-        <v>535.3435418940941</v>
+        <v>535.3435418940938</v>
       </c>
       <c r="O11" t="n">
-        <v>681.1610319510477</v>
+        <v>681.1610319510476</v>
       </c>
       <c r="P11" t="n">
-        <v>771.111885248839</v>
+        <v>771.1118852488388</v>
       </c>
       <c r="Q11" t="n">
-        <v>790.488483383608</v>
+        <v>790.4884833836079</v>
       </c>
       <c r="R11" t="n">
-        <v>790.488483383608</v>
+        <v>781.2253683860151</v>
       </c>
       <c r="S11" t="n">
-        <v>790.488483383608</v>
+        <v>740.0427452049124</v>
       </c>
       <c r="T11" t="n">
-        <v>790.488483383608</v>
+        <v>740.0427452049124</v>
       </c>
       <c r="U11" t="n">
-        <v>790.488483383608</v>
+        <v>740.0427452049124</v>
       </c>
       <c r="V11" t="n">
-        <v>790.488483383608</v>
+        <v>540.4244413201629</v>
       </c>
       <c r="W11" t="n">
-        <v>790.488483383608</v>
+        <v>540.4244413201629</v>
       </c>
       <c r="X11" t="n">
-        <v>790.488483383608</v>
+        <v>540.4244413201629</v>
       </c>
       <c r="Y11" t="n">
-        <v>590.8701794988585</v>
+        <v>540.4244413201629</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>609.4014371649805</v>
+        <v>564.8595575258338</v>
       </c>
       <c r="C12" t="n">
-        <v>609.4014371649805</v>
+        <v>390.4065282447068</v>
       </c>
       <c r="D12" t="n">
-        <v>609.4014371649805</v>
+        <v>241.4721185834555</v>
       </c>
       <c r="E12" t="n">
-        <v>450.1639821595251</v>
+        <v>241.4721185834555</v>
       </c>
       <c r="F12" t="n">
-        <v>303.62942418641</v>
+        <v>241.4721185834555</v>
       </c>
       <c r="G12" t="n">
-        <v>166.1091265243302</v>
+        <v>103.9518209213757</v>
       </c>
       <c r="H12" t="n">
         <v>64.43114056866742</v>
@@ -5123,49 +5123,49 @@
         <v>15.80976966767216</v>
       </c>
       <c r="K12" t="n">
-        <v>83.69867875189624</v>
+        <v>70.93050455562921</v>
       </c>
       <c r="L12" t="n">
-        <v>204.1378502850908</v>
+        <v>191.3696760888238</v>
       </c>
       <c r="M12" t="n">
-        <v>364.0415508878729</v>
+        <v>351.2733766916059</v>
       </c>
       <c r="N12" t="n">
-        <v>542.5860715530468</v>
+        <v>529.8178973567799</v>
       </c>
       <c r="O12" t="n">
-        <v>683.6996312595584</v>
+        <v>670.9314570632914</v>
       </c>
       <c r="P12" t="n">
-        <v>777.6226374719383</v>
+        <v>764.8544632756715</v>
       </c>
       <c r="Q12" t="n">
-        <v>790.488483383608</v>
+        <v>790.4884833836079</v>
       </c>
       <c r="R12" t="n">
-        <v>790.488483383608</v>
+        <v>764.4778614105833</v>
       </c>
       <c r="S12" t="n">
-        <v>790.488483383608</v>
+        <v>764.4778614105833</v>
       </c>
       <c r="T12" t="n">
-        <v>790.488483383608</v>
+        <v>764.4778614105833</v>
       </c>
       <c r="U12" t="n">
-        <v>790.488483383608</v>
+        <v>764.4778614105833</v>
       </c>
       <c r="V12" t="n">
-        <v>790.488483383608</v>
+        <v>564.8595575258338</v>
       </c>
       <c r="W12" t="n">
-        <v>609.4014371649805</v>
+        <v>564.8595575258338</v>
       </c>
       <c r="X12" t="n">
-        <v>609.4014371649805</v>
+        <v>564.8595575258338</v>
       </c>
       <c r="Y12" t="n">
-        <v>609.4014371649805</v>
+        <v>564.8595575258338</v>
       </c>
     </row>
     <row r="13">
@@ -5175,52 +5175,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.80976966767216</v>
+        <v>273.7183432378793</v>
       </c>
       <c r="C13" t="n">
-        <v>15.80976966767216</v>
+        <v>188.4775987490908</v>
       </c>
       <c r="D13" t="n">
-        <v>15.80976966767216</v>
+        <v>38.36095933675502</v>
       </c>
       <c r="E13" t="n">
-        <v>15.80976966767216</v>
+        <v>38.36095933675502</v>
       </c>
       <c r="F13" t="n">
-        <v>15.80976966767216</v>
+        <v>38.36095933675502</v>
       </c>
       <c r="G13" t="n">
-        <v>15.80976966767216</v>
+        <v>38.36095933675502</v>
       </c>
       <c r="H13" t="n">
-        <v>15.80976966767216</v>
+        <v>38.36095933675502</v>
       </c>
       <c r="I13" t="n">
-        <v>15.80976966767216</v>
+        <v>38.36095933675502</v>
       </c>
       <c r="J13" t="n">
         <v>15.80976966767216</v>
       </c>
       <c r="K13" t="n">
-        <v>15.80976966767216</v>
+        <v>109.3255390915781</v>
       </c>
       <c r="L13" t="n">
-        <v>191.0041927806936</v>
+        <v>284.5199622045996</v>
       </c>
       <c r="M13" t="n">
-        <v>386.1112709771859</v>
+        <v>479.6270404010919</v>
       </c>
       <c r="N13" t="n">
-        <v>507.9505407605562</v>
+        <v>507.950540760556</v>
       </c>
       <c r="O13" t="n">
-        <v>672.8818973111541</v>
+        <v>672.881897311154</v>
       </c>
       <c r="P13" t="n">
-        <v>790.488483383608</v>
+        <v>790.4884833836079</v>
       </c>
       <c r="Q13" t="n">
-        <v>788.4372886179941</v>
+        <v>788.437288617994</v>
       </c>
       <c r="R13" t="n">
         <v>654.9851119528685</v>
@@ -5229,22 +5229,22 @@
         <v>455.366808068119</v>
       </c>
       <c r="T13" t="n">
-        <v>255.7485041833695</v>
+        <v>455.366808068119</v>
       </c>
       <c r="U13" t="n">
-        <v>56.13020029861997</v>
+        <v>455.366808068119</v>
       </c>
       <c r="V13" t="n">
-        <v>15.80976966767216</v>
+        <v>455.366808068119</v>
       </c>
       <c r="W13" t="n">
-        <v>15.80976966767216</v>
+        <v>455.366808068119</v>
       </c>
       <c r="X13" t="n">
-        <v>15.80976966767216</v>
+        <v>455.366808068119</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.80976966767216</v>
+        <v>455.366808068119</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>790.4884833836078</v>
+        <v>340.8061374354134</v>
       </c>
       <c r="C14" t="n">
-        <v>790.4884833836078</v>
+        <v>340.8061374354134</v>
       </c>
       <c r="D14" t="n">
-        <v>790.4884833836078</v>
+        <v>340.8061374354134</v>
       </c>
       <c r="E14" t="n">
-        <v>614.6646813219205</v>
+        <v>340.8061374354134</v>
       </c>
       <c r="F14" t="n">
-        <v>415.046377437171</v>
+        <v>340.8061374354134</v>
       </c>
       <c r="G14" t="n">
-        <v>215.4280735524216</v>
+        <v>340.8061374354134</v>
       </c>
       <c r="H14" t="n">
-        <v>15.80976966767216</v>
+        <v>141.187833550664</v>
       </c>
       <c r="I14" t="n">
         <v>15.80976966767216</v>
@@ -5284,16 +5284,16 @@
         <v>88.95579413398585</v>
       </c>
       <c r="L14" t="n">
-        <v>205.4766666630393</v>
+        <v>205.4766666630391</v>
       </c>
       <c r="M14" t="n">
-        <v>366.7980259642591</v>
+        <v>366.7980259642587</v>
       </c>
       <c r="N14" t="n">
-        <v>535.343541894094</v>
+        <v>535.3435418940938</v>
       </c>
       <c r="O14" t="n">
-        <v>681.1610319510477</v>
+        <v>681.1610319510476</v>
       </c>
       <c r="P14" t="n">
         <v>771.1118852488387</v>
@@ -5302,28 +5302,28 @@
         <v>790.4884833836078</v>
       </c>
       <c r="R14" t="n">
-        <v>790.4884833836078</v>
+        <v>781.225368386015</v>
       </c>
       <c r="S14" t="n">
-        <v>790.4884833836078</v>
+        <v>781.225368386015</v>
       </c>
       <c r="T14" t="n">
-        <v>790.4884833836078</v>
+        <v>781.225368386015</v>
       </c>
       <c r="U14" t="n">
-        <v>790.4884833836078</v>
+        <v>581.6070645012655</v>
       </c>
       <c r="V14" t="n">
-        <v>790.4884833836078</v>
+        <v>581.6070645012655</v>
       </c>
       <c r="W14" t="n">
-        <v>790.4884833836078</v>
+        <v>381.9887606165161</v>
       </c>
       <c r="X14" t="n">
-        <v>790.4884833836078</v>
+        <v>340.8061374354134</v>
       </c>
       <c r="Y14" t="n">
-        <v>790.4884833836078</v>
+        <v>340.8061374354134</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>609.4014371649805</v>
+        <v>416.2382206886149</v>
       </c>
       <c r="C15" t="n">
-        <v>609.4014371649805</v>
+        <v>255.0080532854147</v>
       </c>
       <c r="D15" t="n">
-        <v>609.4014371649805</v>
+        <v>255.0080532854147</v>
       </c>
       <c r="E15" t="n">
-        <v>450.1639821595251</v>
+        <v>255.0080532854147</v>
       </c>
       <c r="F15" t="n">
-        <v>303.62942418641</v>
+        <v>255.0080532854147</v>
       </c>
       <c r="G15" t="n">
-        <v>166.1091265243302</v>
+        <v>117.4877556233349</v>
       </c>
       <c r="H15" t="n">
-        <v>64.43114056866742</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="I15" t="n">
         <v>15.80976966767216</v>
@@ -5381,28 +5381,28 @@
         <v>790.4884833836078</v>
       </c>
       <c r="R15" t="n">
-        <v>790.4884833836078</v>
+        <v>764.4778614105832</v>
       </c>
       <c r="S15" t="n">
-        <v>790.4884833836078</v>
+        <v>613.5455389828096</v>
       </c>
       <c r="T15" t="n">
-        <v>790.4884833836078</v>
+        <v>416.2382206886149</v>
       </c>
       <c r="U15" t="n">
-        <v>790.4884833836078</v>
+        <v>416.2382206886149</v>
       </c>
       <c r="V15" t="n">
-        <v>790.4884833836078</v>
+        <v>416.2382206886149</v>
       </c>
       <c r="W15" t="n">
-        <v>609.4014371649805</v>
+        <v>416.2382206886149</v>
       </c>
       <c r="X15" t="n">
-        <v>609.4014371649805</v>
+        <v>416.2382206886149</v>
       </c>
       <c r="Y15" t="n">
-        <v>609.4014371649805</v>
+        <v>416.2382206886149</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.80976966767216</v>
+        <v>290.223762398994</v>
       </c>
       <c r="C16" t="n">
-        <v>15.80976966767216</v>
+        <v>290.223762398994</v>
       </c>
       <c r="D16" t="n">
-        <v>15.80976966767216</v>
+        <v>290.223762398994</v>
       </c>
       <c r="E16" t="n">
-        <v>15.80976966767216</v>
+        <v>142.3106688166009</v>
       </c>
       <c r="F16" t="n">
-        <v>15.80976966767216</v>
+        <v>142.3106688166009</v>
       </c>
       <c r="G16" t="n">
-        <v>15.80976966767216</v>
+        <v>142.3106688166009</v>
       </c>
       <c r="H16" t="n">
-        <v>15.80976966767216</v>
+        <v>142.3106688166009</v>
       </c>
       <c r="I16" t="n">
         <v>15.80976966767216</v>
@@ -5439,19 +5439,19 @@
         <v>15.80976966767216</v>
       </c>
       <c r="K16" t="n">
-        <v>15.80976966767216</v>
+        <v>59.60972588605307</v>
       </c>
       <c r="L16" t="n">
-        <v>117.1975629266207</v>
+        <v>234.8041489990745</v>
       </c>
       <c r="M16" t="n">
-        <v>312.304641123113</v>
+        <v>429.9112271955668</v>
       </c>
       <c r="N16" t="n">
-        <v>507.9505407605559</v>
+        <v>625.5571268330098</v>
       </c>
       <c r="O16" t="n">
-        <v>672.8818973111539</v>
+        <v>790.4884833836078</v>
       </c>
       <c r="P16" t="n">
         <v>790.4884833836078</v>
@@ -5460,28 +5460,28 @@
         <v>788.4372886179939</v>
       </c>
       <c r="R16" t="n">
-        <v>654.9851119528684</v>
+        <v>671.4905311139833</v>
       </c>
       <c r="S16" t="n">
-        <v>455.3668080681189</v>
+        <v>471.8722272292338</v>
       </c>
       <c r="T16" t="n">
-        <v>255.7485041833694</v>
+        <v>471.8722272292338</v>
       </c>
       <c r="U16" t="n">
-        <v>56.13020029861997</v>
+        <v>471.8722272292338</v>
       </c>
       <c r="V16" t="n">
-        <v>15.80976966767216</v>
+        <v>471.8722272292338</v>
       </c>
       <c r="W16" t="n">
-        <v>15.80976966767216</v>
+        <v>471.8722272292338</v>
       </c>
       <c r="X16" t="n">
-        <v>15.80976966767216</v>
+        <v>471.8722272292338</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.80976966767216</v>
+        <v>471.8722272292338</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>590.8701794988583</v>
+        <v>222.4133946472606</v>
       </c>
       <c r="C17" t="n">
-        <v>590.8701794988583</v>
+        <v>222.4133946472606</v>
       </c>
       <c r="D17" t="n">
-        <v>590.8701794988583</v>
+        <v>215.4280735524217</v>
       </c>
       <c r="E17" t="n">
-        <v>590.8701794988583</v>
+        <v>215.4280735524217</v>
       </c>
       <c r="F17" t="n">
-        <v>391.2518756141088</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="G17" t="n">
-        <v>191.6335717293594</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="H17" t="n">
         <v>15.80976966767216</v>
@@ -5515,52 +5515,52 @@
         <v>15.80976966767216</v>
       </c>
       <c r="J17" t="n">
-        <v>24.77728899937077</v>
+        <v>24.77728899937082</v>
       </c>
       <c r="K17" t="n">
-        <v>88.95579413398585</v>
+        <v>88.95579413398596</v>
       </c>
       <c r="L17" t="n">
         <v>205.4766666630392</v>
       </c>
       <c r="M17" t="n">
-        <v>366.798025964259</v>
+        <v>366.7980259642588</v>
       </c>
       <c r="N17" t="n">
-        <v>535.343541894094</v>
+        <v>535.3435418940941</v>
       </c>
       <c r="O17" t="n">
-        <v>681.1610319510477</v>
+        <v>681.1610319510478</v>
       </c>
       <c r="P17" t="n">
-        <v>771.1118852488387</v>
+        <v>771.111885248839</v>
       </c>
       <c r="Q17" t="n">
-        <v>790.4884833836078</v>
+        <v>790.4884833836081</v>
       </c>
       <c r="R17" t="n">
-        <v>790.4884833836078</v>
+        <v>781.2253683860155</v>
       </c>
       <c r="S17" t="n">
-        <v>790.4884833836078</v>
+        <v>621.6500024167597</v>
       </c>
       <c r="T17" t="n">
-        <v>790.4884833836078</v>
+        <v>422.0316985320101</v>
       </c>
       <c r="U17" t="n">
-        <v>790.4884833836078</v>
+        <v>422.0316985320101</v>
       </c>
       <c r="V17" t="n">
-        <v>790.4884833836078</v>
+        <v>222.4133946472606</v>
       </c>
       <c r="W17" t="n">
-        <v>790.4884833836078</v>
+        <v>222.4133946472606</v>
       </c>
       <c r="X17" t="n">
-        <v>790.4884833836078</v>
+        <v>222.4133946472606</v>
       </c>
       <c r="Y17" t="n">
-        <v>590.8701794988583</v>
+        <v>222.4133946472606</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.1091265243302</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="C18" t="n">
-        <v>166.1091265243302</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="D18" t="n">
-        <v>166.1091265243302</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="E18" t="n">
-        <v>166.1091265243302</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="F18" t="n">
-        <v>166.1091265243302</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="G18" t="n">
-        <v>166.1091265243302</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="H18" t="n">
-        <v>64.43114056866742</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="I18" t="n">
         <v>15.80976966767216</v>
@@ -5597,49 +5597,49 @@
         <v>15.80976966767216</v>
       </c>
       <c r="K18" t="n">
-        <v>70.9305045556292</v>
+        <v>70.93050455562924</v>
       </c>
       <c r="L18" t="n">
-        <v>191.3696760888238</v>
+        <v>191.369676088824</v>
       </c>
       <c r="M18" t="n">
-        <v>351.2733766916059</v>
+        <v>364.0415508878725</v>
       </c>
       <c r="N18" t="n">
-        <v>529.8178973567799</v>
+        <v>542.5860715530466</v>
       </c>
       <c r="O18" t="n">
-        <v>670.9314570632914</v>
+        <v>683.6996312595583</v>
       </c>
       <c r="P18" t="n">
-        <v>764.8544632756715</v>
+        <v>777.6226374719383</v>
       </c>
       <c r="Q18" t="n">
-        <v>790.4884833836078</v>
+        <v>790.4884833836081</v>
       </c>
       <c r="R18" t="n">
-        <v>764.4778614105832</v>
+        <v>790.4884833836081</v>
       </c>
       <c r="S18" t="n">
-        <v>613.5455389828096</v>
+        <v>639.5561609558346</v>
       </c>
       <c r="T18" t="n">
-        <v>416.2382206886149</v>
+        <v>639.5561609558346</v>
       </c>
       <c r="U18" t="n">
-        <v>216.6199168038655</v>
+        <v>639.5561609558346</v>
       </c>
       <c r="V18" t="n">
-        <v>166.1091265243302</v>
+        <v>614.6646813219209</v>
       </c>
       <c r="W18" t="n">
-        <v>166.1091265243302</v>
+        <v>415.0463774371713</v>
       </c>
       <c r="X18" t="n">
-        <v>166.1091265243302</v>
+        <v>215.4280735524217</v>
       </c>
       <c r="Y18" t="n">
-        <v>166.1091265243302</v>
+        <v>15.80976966767216</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.80976966767216</v>
+        <v>209.6034107838693</v>
       </c>
       <c r="C19" t="n">
-        <v>15.80976966767216</v>
+        <v>209.6034107838693</v>
       </c>
       <c r="D19" t="n">
-        <v>15.80976966767216</v>
+        <v>170.6525208645647</v>
       </c>
       <c r="E19" t="n">
-        <v>15.80976966767216</v>
+        <v>170.6525208645647</v>
       </c>
       <c r="F19" t="n">
-        <v>15.80976966767216</v>
+        <v>170.6525208645647</v>
       </c>
       <c r="G19" t="n">
-        <v>15.80976966767216</v>
+        <v>170.6525208645647</v>
       </c>
       <c r="H19" t="n">
         <v>15.80976966767216</v>
@@ -5682,43 +5682,43 @@
         <v>191.0041927806936</v>
       </c>
       <c r="M19" t="n">
-        <v>386.1112709771859</v>
+        <v>386.111270977186</v>
       </c>
       <c r="N19" t="n">
-        <v>581.7571706146289</v>
+        <v>581.757170614629</v>
       </c>
       <c r="O19" t="n">
-        <v>746.6885271652269</v>
+        <v>746.688527165227</v>
       </c>
       <c r="P19" t="n">
-        <v>790.4884833836078</v>
+        <v>790.4884833836081</v>
       </c>
       <c r="Q19" t="n">
-        <v>790.4884833836078</v>
+        <v>790.4884833836081</v>
       </c>
       <c r="R19" t="n">
-        <v>790.4884833836078</v>
+        <v>790.4884833836081</v>
       </c>
       <c r="S19" t="n">
-        <v>614.6646813219205</v>
+        <v>590.8701794988585</v>
       </c>
       <c r="T19" t="n">
-        <v>415.046377437171</v>
+        <v>590.8701794988585</v>
       </c>
       <c r="U19" t="n">
-        <v>215.4280735524216</v>
+        <v>590.8701794988585</v>
       </c>
       <c r="V19" t="n">
-        <v>15.80976966767216</v>
+        <v>590.8701794988585</v>
       </c>
       <c r="W19" t="n">
-        <v>15.80976966767216</v>
+        <v>391.251875614109</v>
       </c>
       <c r="X19" t="n">
-        <v>15.80976966767216</v>
+        <v>391.251875614109</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.80976966767216</v>
+        <v>391.251875614109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>391.2518756141088</v>
+        <v>422.03169853201</v>
       </c>
       <c r="C20" t="n">
-        <v>191.6335717293594</v>
+        <v>415.0463774371711</v>
       </c>
       <c r="D20" t="n">
-        <v>15.80976966767215</v>
+        <v>215.4280735524217</v>
       </c>
       <c r="E20" t="n">
-        <v>15.80976966767215</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="F20" t="n">
-        <v>15.80976966767215</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="G20" t="n">
-        <v>15.80976966767215</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="H20" t="n">
-        <v>15.80976966767215</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="I20" t="n">
-        <v>15.80976966767215</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="J20" t="n">
-        <v>24.77728899937057</v>
+        <v>24.77728899937074</v>
       </c>
       <c r="K20" t="n">
-        <v>88.95579413398565</v>
+        <v>88.95579413398588</v>
       </c>
       <c r="L20" t="n">
-        <v>205.4766666630392</v>
+        <v>205.4766666630395</v>
       </c>
       <c r="M20" t="n">
-        <v>366.7980259642588</v>
+        <v>366.7980259642591</v>
       </c>
       <c r="N20" t="n">
-        <v>535.3435418940936</v>
+        <v>535.343541894094</v>
       </c>
       <c r="O20" t="n">
-        <v>681.1610319510472</v>
+        <v>681.1610319510476</v>
       </c>
       <c r="P20" t="n">
-        <v>771.1118852488386</v>
+        <v>771.1118852488389</v>
       </c>
       <c r="Q20" t="n">
-        <v>790.4884833836076</v>
+        <v>790.488483383608</v>
       </c>
       <c r="R20" t="n">
-        <v>790.4884833836076</v>
+        <v>781.2253683860152</v>
       </c>
       <c r="S20" t="n">
-        <v>790.4884833836076</v>
+        <v>621.6500024167594</v>
       </c>
       <c r="T20" t="n">
-        <v>790.4884833836076</v>
+        <v>621.6500024167594</v>
       </c>
       <c r="U20" t="n">
-        <v>790.4884833836076</v>
+        <v>621.6500024167594</v>
       </c>
       <c r="V20" t="n">
-        <v>790.4884833836076</v>
+        <v>422.03169853201</v>
       </c>
       <c r="W20" t="n">
-        <v>790.4884833836076</v>
+        <v>422.03169853201</v>
       </c>
       <c r="X20" t="n">
-        <v>790.4884833836076</v>
+        <v>422.03169853201</v>
       </c>
       <c r="Y20" t="n">
-        <v>590.8701794988582</v>
+        <v>422.03169853201</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15.80976966767215</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="C21" t="n">
-        <v>15.80976966767215</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="D21" t="n">
-        <v>15.80976966767215</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="E21" t="n">
-        <v>15.80976966767215</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="F21" t="n">
-        <v>15.80976966767215</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="G21" t="n">
-        <v>15.80976966767215</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="H21" t="n">
-        <v>15.80976966767215</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="I21" t="n">
-        <v>15.80976966767215</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="J21" t="n">
-        <v>28.57794386393878</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="K21" t="n">
-        <v>83.69867875189578</v>
+        <v>70.93050455562921</v>
       </c>
       <c r="L21" t="n">
-        <v>204.1378502850904</v>
+        <v>191.3696760888238</v>
       </c>
       <c r="M21" t="n">
-        <v>364.0415508878724</v>
+        <v>351.2733766916059</v>
       </c>
       <c r="N21" t="n">
-        <v>542.5860715530464</v>
+        <v>542.5860715530466</v>
       </c>
       <c r="O21" t="n">
-        <v>683.6996312595579</v>
+        <v>683.6996312595581</v>
       </c>
       <c r="P21" t="n">
-        <v>777.6226374719379</v>
+        <v>777.6226374719382</v>
       </c>
       <c r="Q21" t="n">
-        <v>790.4884833836076</v>
+        <v>790.488483383608</v>
       </c>
       <c r="R21" t="n">
-        <v>790.4884833836076</v>
+        <v>782.8800183419887</v>
       </c>
       <c r="S21" t="n">
-        <v>639.556160955834</v>
+        <v>782.8800183419887</v>
       </c>
       <c r="T21" t="n">
-        <v>442.2488426616393</v>
+        <v>782.8800183419887</v>
       </c>
       <c r="U21" t="n">
-        <v>242.6305387768899</v>
+        <v>782.8800183419887</v>
       </c>
       <c r="V21" t="n">
-        <v>242.6305387768899</v>
+        <v>583.2617144572392</v>
       </c>
       <c r="W21" t="n">
-        <v>242.6305387768899</v>
+        <v>583.2617144572392</v>
       </c>
       <c r="X21" t="n">
-        <v>242.6305387768899</v>
+        <v>383.6434105724897</v>
       </c>
       <c r="Y21" t="n">
-        <v>43.01223489214055</v>
+        <v>184.0251066877402</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>313.839502662401</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="C22" t="n">
-        <v>313.839502662401</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="D22" t="n">
-        <v>163.7228632500653</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="E22" t="n">
-        <v>15.80976966767215</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="F22" t="n">
-        <v>15.80976966767215</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="G22" t="n">
-        <v>15.80976966767215</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="H22" t="n">
-        <v>15.80976966767215</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="I22" t="n">
-        <v>15.80976966767215</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="J22" t="n">
-        <v>15.80976966767215</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="K22" t="n">
-        <v>15.80976966767215</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="L22" t="n">
         <v>191.0041927806936</v>
@@ -5922,40 +5922,40 @@
         <v>386.1112709771859</v>
       </c>
       <c r="N22" t="n">
-        <v>507.9505407605557</v>
+        <v>581.7571706146289</v>
       </c>
       <c r="O22" t="n">
-        <v>672.8818973111537</v>
+        <v>746.6885271652269</v>
       </c>
       <c r="P22" t="n">
-        <v>790.4884833836076</v>
+        <v>790.488483383608</v>
       </c>
       <c r="Q22" t="n">
-        <v>790.4884833836076</v>
+        <v>788.4372886179941</v>
       </c>
       <c r="R22" t="n">
-        <v>657.0363067184819</v>
+        <v>788.4372886179941</v>
       </c>
       <c r="S22" t="n">
-        <v>657.0363067184819</v>
+        <v>788.4372886179941</v>
       </c>
       <c r="T22" t="n">
-        <v>657.0363067184819</v>
+        <v>788.4372886179941</v>
       </c>
       <c r="U22" t="n">
-        <v>657.0363067184819</v>
+        <v>788.4372886179941</v>
       </c>
       <c r="V22" t="n">
-        <v>657.0363067184819</v>
+        <v>588.8189847332446</v>
       </c>
       <c r="W22" t="n">
-        <v>657.0363067184819</v>
+        <v>389.2006808484952</v>
       </c>
       <c r="X22" t="n">
-        <v>657.0363067184819</v>
+        <v>389.2006808484952</v>
       </c>
       <c r="Y22" t="n">
-        <v>495.4879674926407</v>
+        <v>189.5823769637456</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>630.2075333591888</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="C23" t="n">
-        <v>630.2075333591888</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="D23" t="n">
-        <v>387.4076730878359</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="E23" t="n">
-        <v>387.4076730878359</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="F23" t="n">
-        <v>387.4076730878359</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="G23" t="n">
-        <v>387.4076730878359</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="H23" t="n">
-        <v>144.6078128164829</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="I23" t="n">
         <v>19.22974893349115</v>
       </c>
       <c r="J23" t="n">
-        <v>28.19726826518978</v>
+        <v>195.6029172855428</v>
       </c>
       <c r="K23" t="n">
-        <v>92.37577339980483</v>
+        <v>259.9547574249349</v>
       </c>
       <c r="L23" t="n">
-        <v>208.8966459288584</v>
+        <v>376.4756299539885</v>
       </c>
       <c r="M23" t="n">
-        <v>370.2180052300782</v>
+        <v>537.7969892552082</v>
       </c>
       <c r="N23" t="n">
-        <v>538.7635211599132</v>
+        <v>706.3425051850433</v>
       </c>
       <c r="O23" t="n">
-        <v>684.581011216867</v>
+        <v>852.159995241997</v>
       </c>
       <c r="P23" t="n">
-        <v>774.5318645146583</v>
+        <v>942.1108485397883</v>
       </c>
       <c r="Q23" t="n">
-        <v>961.4874466745575</v>
+        <v>961.4874466745574</v>
       </c>
       <c r="R23" t="n">
-        <v>961.4874466745575</v>
+        <v>961.4874466745574</v>
       </c>
       <c r="S23" t="n">
-        <v>845.6529173234155</v>
+        <v>801.9120807053016</v>
       </c>
       <c r="T23" t="n">
-        <v>630.2075333591888</v>
+        <v>801.9120807053016</v>
       </c>
       <c r="U23" t="n">
-        <v>630.2075333591888</v>
+        <v>559.1122204339487</v>
       </c>
       <c r="V23" t="n">
-        <v>630.2075333591888</v>
+        <v>504.829469476197</v>
       </c>
       <c r="W23" t="n">
-        <v>630.2075333591888</v>
+        <v>262.0296092048441</v>
       </c>
       <c r="X23" t="n">
-        <v>630.2075333591888</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="Y23" t="n">
-        <v>630.2075333591888</v>
+        <v>19.22974893349115</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>216.7855294957377</v>
+        <v>707.3328464218234</v>
       </c>
       <c r="C24" t="n">
-        <v>216.7855294957377</v>
+        <v>532.8798171406964</v>
       </c>
       <c r="D24" t="n">
-        <v>67.85111983448641</v>
+        <v>383.9454074794452</v>
       </c>
       <c r="E24" t="n">
-        <v>67.85111983448641</v>
+        <v>224.7079524739897</v>
       </c>
       <c r="F24" t="n">
-        <v>67.85111983448641</v>
+        <v>224.7079524739897</v>
       </c>
       <c r="G24" t="n">
-        <v>67.85111983448641</v>
+        <v>120.9077348891539</v>
       </c>
       <c r="H24" t="n">
-        <v>67.85111983448641</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="I24" t="n">
         <v>19.22974893349115</v>
       </c>
       <c r="J24" t="n">
-        <v>19.22974893349115</v>
+        <v>130.5830200438053</v>
       </c>
       <c r="K24" t="n">
-        <v>74.35048382144819</v>
+        <v>254.6976420428453</v>
       </c>
       <c r="L24" t="n">
-        <v>194.7896553546428</v>
+        <v>375.1368135760399</v>
       </c>
       <c r="M24" t="n">
-        <v>354.693355957425</v>
+        <v>535.040514178822</v>
       </c>
       <c r="N24" t="n">
-        <v>533.2378766225989</v>
+        <v>713.585034843996</v>
       </c>
       <c r="O24" t="n">
-        <v>674.3514363291106</v>
+        <v>854.6985945505076</v>
       </c>
       <c r="P24" t="n">
-        <v>912.3195793810636</v>
+        <v>948.6216007628876</v>
       </c>
       <c r="Q24" t="n">
-        <v>961.4874466745575</v>
+        <v>961.4874466745574</v>
       </c>
       <c r="R24" t="n">
-        <v>935.4768247015329</v>
+        <v>935.4768247015328</v>
       </c>
       <c r="S24" t="n">
-        <v>784.5445022737593</v>
+        <v>935.4768247015328</v>
       </c>
       <c r="T24" t="n">
-        <v>587.2371839795646</v>
+        <v>935.4768247015328</v>
       </c>
       <c r="U24" t="n">
-        <v>424.6370297012705</v>
+        <v>707.3328464218234</v>
       </c>
       <c r="V24" t="n">
-        <v>424.6370297012705</v>
+        <v>707.3328464218234</v>
       </c>
       <c r="W24" t="n">
-        <v>424.6370297012705</v>
+        <v>707.3328464218234</v>
       </c>
       <c r="X24" t="n">
-        <v>216.7855294957377</v>
+        <v>707.3328464218234</v>
       </c>
       <c r="Y24" t="n">
-        <v>216.7855294957377</v>
+        <v>707.3328464218234</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>450.6900386916482</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="C25" t="n">
-        <v>450.6900386916482</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="D25" t="n">
-        <v>300.5733992793125</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="E25" t="n">
-        <v>300.5733992793125</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="F25" t="n">
-        <v>300.5733992793125</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="G25" t="n">
-        <v>300.5733992793125</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="H25" t="n">
-        <v>145.7306480824199</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="I25" t="n">
         <v>19.22974893349115</v>
@@ -6150,49 +6150,49 @@
         <v>19.22974893349115</v>
       </c>
       <c r="K25" t="n">
-        <v>112.745518357397</v>
+        <v>112.7455183573971</v>
       </c>
       <c r="L25" t="n">
         <v>287.9399414704185</v>
       </c>
       <c r="M25" t="n">
-        <v>483.0470196669108</v>
+        <v>483.0470196669107</v>
       </c>
       <c r="N25" t="n">
-        <v>678.9495040515056</v>
+        <v>678.9495040515055</v>
       </c>
       <c r="O25" t="n">
-        <v>843.8808606021037</v>
+        <v>843.8808606021036</v>
       </c>
       <c r="P25" t="n">
-        <v>961.4874466745575</v>
+        <v>961.4874466745574</v>
       </c>
       <c r="Q25" t="n">
-        <v>961.4874466745575</v>
+        <v>961.4874466745574</v>
       </c>
       <c r="R25" t="n">
-        <v>961.4874466745575</v>
+        <v>961.4874466745574</v>
       </c>
       <c r="S25" t="n">
-        <v>961.4874466745575</v>
+        <v>961.4874466745574</v>
       </c>
       <c r="T25" t="n">
-        <v>936.2897592343541</v>
+        <v>914.4674852044541</v>
       </c>
       <c r="U25" t="n">
-        <v>693.4898989630011</v>
+        <v>671.6676249331011</v>
       </c>
       <c r="V25" t="n">
-        <v>693.4898989630011</v>
+        <v>428.8677646617482</v>
       </c>
       <c r="W25" t="n">
-        <v>450.6900386916482</v>
+        <v>428.8677646617482</v>
       </c>
       <c r="X25" t="n">
-        <v>450.6900386916482</v>
+        <v>200.8782137637309</v>
       </c>
       <c r="Y25" t="n">
-        <v>450.6900386916482</v>
+        <v>200.8782137637309</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.22974893349115</v>
+        <v>316.3123601625957</v>
       </c>
       <c r="C26" t="n">
-        <v>19.22974893349115</v>
+        <v>316.3123601625957</v>
       </c>
       <c r="D26" t="n">
-        <v>19.22974893349115</v>
+        <v>73.51249989124281</v>
       </c>
       <c r="E26" t="n">
-        <v>19.22974893349115</v>
+        <v>73.51249989124281</v>
       </c>
       <c r="F26" t="n">
-        <v>19.22974893349115</v>
+        <v>73.51249989124281</v>
       </c>
       <c r="G26" t="n">
-        <v>19.22974893349115</v>
+        <v>73.51249989124281</v>
       </c>
       <c r="H26" t="n">
-        <v>19.22974893349115</v>
+        <v>73.51249989124281</v>
       </c>
       <c r="I26" t="n">
         <v>19.22974893349115</v>
       </c>
       <c r="J26" t="n">
-        <v>28.19726826518978</v>
+        <v>195.6029172855428</v>
       </c>
       <c r="K26" t="n">
-        <v>113.8853465520838</v>
+        <v>259.9547574249349</v>
       </c>
       <c r="L26" t="n">
-        <v>230.4062190811374</v>
+        <v>376.4756299539885</v>
       </c>
       <c r="M26" t="n">
-        <v>468.3743621330904</v>
+        <v>537.7969892552082</v>
       </c>
       <c r="N26" t="n">
-        <v>706.3425051850434</v>
+        <v>706.3425051850433</v>
       </c>
       <c r="O26" t="n">
-        <v>852.1599952419971</v>
+        <v>852.159995241997</v>
       </c>
       <c r="P26" t="n">
-        <v>942.1108485397884</v>
+        <v>942.1108485397883</v>
       </c>
       <c r="Q26" t="n">
-        <v>961.4874466745575</v>
+        <v>961.4874466745574</v>
       </c>
       <c r="R26" t="n">
-        <v>952.2243316769648</v>
+        <v>961.4874466745574</v>
       </c>
       <c r="S26" t="n">
-        <v>792.648965707709</v>
+        <v>801.9120807053016</v>
       </c>
       <c r="T26" t="n">
-        <v>577.2035817434822</v>
+        <v>801.9120807053016</v>
       </c>
       <c r="U26" t="n">
-        <v>334.4037214721293</v>
+        <v>801.9120807053016</v>
       </c>
       <c r="V26" t="n">
-        <v>91.60386120077635</v>
+        <v>801.9120807053016</v>
       </c>
       <c r="W26" t="n">
-        <v>19.22974893349115</v>
+        <v>801.9120807053016</v>
       </c>
       <c r="X26" t="n">
-        <v>19.22974893349115</v>
+        <v>801.9120807053016</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.22974893349115</v>
+        <v>559.1122204339487</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>286.2281598772673</v>
+        <v>475.3011187687196</v>
       </c>
       <c r="C27" t="n">
-        <v>111.7751305961403</v>
+        <v>475.3011187687196</v>
       </c>
       <c r="D27" t="n">
-        <v>19.22974893349115</v>
+        <v>475.3011187687196</v>
       </c>
       <c r="E27" t="n">
-        <v>19.22974893349115</v>
+        <v>316.0636637632641</v>
       </c>
       <c r="F27" t="n">
-        <v>19.22974893349115</v>
+        <v>169.5291057901491</v>
       </c>
       <c r="G27" t="n">
-        <v>19.22974893349115</v>
+        <v>169.5291057901491</v>
       </c>
       <c r="H27" t="n">
-        <v>19.22974893349115</v>
+        <v>67.8511198344864</v>
       </c>
       <c r="I27" t="n">
         <v>19.22974893349115</v>
       </c>
       <c r="J27" t="n">
-        <v>19.22974893349115</v>
+        <v>130.5830200438053</v>
       </c>
       <c r="K27" t="n">
-        <v>74.35048382144819</v>
+        <v>185.7037549317623</v>
       </c>
       <c r="L27" t="n">
-        <v>194.7896553546428</v>
+        <v>306.142926464957</v>
       </c>
       <c r="M27" t="n">
-        <v>432.7577984065958</v>
+        <v>466.0466270677391</v>
       </c>
       <c r="N27" t="n">
-        <v>670.7259414585488</v>
+        <v>644.5911477329131</v>
       </c>
       <c r="O27" t="n">
-        <v>811.8395011650605</v>
+        <v>785.7047074394247</v>
       </c>
       <c r="P27" t="n">
-        <v>905.7625073774406</v>
+        <v>879.6277136518048</v>
       </c>
       <c r="Q27" t="n">
-        <v>961.4874466745575</v>
+        <v>961.4874466745574</v>
       </c>
       <c r="R27" t="n">
-        <v>961.4874466745575</v>
+        <v>961.4874466745574</v>
       </c>
       <c r="S27" t="n">
-        <v>961.4874466745575</v>
+        <v>961.4874466745574</v>
       </c>
       <c r="T27" t="n">
-        <v>764.1801283803629</v>
+        <v>961.4874466745574</v>
       </c>
       <c r="U27" t="n">
-        <v>764.1801283803629</v>
+        <v>953.2530872718153</v>
       </c>
       <c r="V27" t="n">
-        <v>529.0280201486203</v>
+        <v>718.1009790400725</v>
       </c>
       <c r="W27" t="n">
-        <v>286.2281598772673</v>
+        <v>475.3011187687196</v>
       </c>
       <c r="X27" t="n">
-        <v>286.2281598772673</v>
+        <v>475.3011187687196</v>
       </c>
       <c r="Y27" t="n">
-        <v>286.2281598772673</v>
+        <v>475.3011187687196</v>
       </c>
     </row>
     <row r="28">
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>718.6875864032046</v>
+        <v>489.6354397603466</v>
       </c>
       <c r="C28" t="n">
-        <v>718.6875864032046</v>
+        <v>489.6354397603466</v>
       </c>
       <c r="D28" t="n">
-        <v>637.5485333427397</v>
+        <v>489.6354397603466</v>
       </c>
       <c r="E28" t="n">
         <v>489.6354397603466</v>
@@ -6384,52 +6384,52 @@
         <v>19.22974893349115</v>
       </c>
       <c r="J28" t="n">
-        <v>19.22974893349115</v>
+        <v>19.22974893349094</v>
       </c>
       <c r="K28" t="n">
-        <v>112.7455183573973</v>
+        <v>112.7455183573969</v>
       </c>
       <c r="L28" t="n">
-        <v>287.9399414704187</v>
+        <v>287.9399414704184</v>
       </c>
       <c r="M28" t="n">
-        <v>483.047019666911</v>
+        <v>483.0470196669107</v>
       </c>
       <c r="N28" t="n">
-        <v>678.9495040515058</v>
+        <v>678.9495040515055</v>
       </c>
       <c r="O28" t="n">
-        <v>843.8808606021037</v>
+        <v>843.8808606021036</v>
       </c>
       <c r="P28" t="n">
-        <v>961.4874466745575</v>
+        <v>961.4874466745574</v>
       </c>
       <c r="Q28" t="n">
-        <v>961.4874466745575</v>
+        <v>961.4874466745574</v>
       </c>
       <c r="R28" t="n">
-        <v>961.4874466745575</v>
+        <v>961.4874466745574</v>
       </c>
       <c r="S28" t="n">
-        <v>961.4874466745575</v>
+        <v>961.4874466745574</v>
       </c>
       <c r="T28" t="n">
-        <v>961.4874466745575</v>
+        <v>735.5756213515143</v>
       </c>
       <c r="U28" t="n">
-        <v>961.4874466745575</v>
+        <v>735.5756213515143</v>
       </c>
       <c r="V28" t="n">
-        <v>961.4874466745575</v>
+        <v>735.5756213515143</v>
       </c>
       <c r="W28" t="n">
-        <v>718.6875864032046</v>
+        <v>492.7757610801614</v>
       </c>
       <c r="X28" t="n">
-        <v>718.6875864032046</v>
+        <v>492.7757610801614</v>
       </c>
       <c r="Y28" t="n">
-        <v>718.6875864032046</v>
+        <v>492.7757610801614</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>387.4076730878359</v>
+        <v>91.60386120077627</v>
       </c>
       <c r="C29" t="n">
-        <v>387.4076730878359</v>
+        <v>91.60386120077627</v>
       </c>
       <c r="D29" t="n">
-        <v>387.4076730878359</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="E29" t="n">
-        <v>387.4076730878359</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="F29" t="n">
-        <v>387.4076730878359</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="G29" t="n">
-        <v>387.4076730878359</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="H29" t="n">
-        <v>144.6078128164829</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="I29" t="n">
         <v>19.22974893349115</v>
       </c>
       <c r="J29" t="n">
-        <v>28.19726826518978</v>
+        <v>195.6029172855428</v>
       </c>
       <c r="K29" t="n">
-        <v>92.37577339980483</v>
+        <v>259.7814224201579</v>
       </c>
       <c r="L29" t="n">
-        <v>208.8966459288584</v>
+        <v>376.3022949492114</v>
       </c>
       <c r="M29" t="n">
-        <v>370.2180052300782</v>
+        <v>537.6236542504312</v>
       </c>
       <c r="N29" t="n">
-        <v>538.7635211599132</v>
+        <v>706.1691701802663</v>
       </c>
       <c r="O29" t="n">
-        <v>684.581011216867</v>
+        <v>851.98666023722</v>
       </c>
       <c r="P29" t="n">
-        <v>774.5318645146583</v>
+        <v>941.9375135350114</v>
       </c>
       <c r="Q29" t="n">
-        <v>961.4874466745575</v>
+        <v>961.4874466745574</v>
       </c>
       <c r="R29" t="n">
-        <v>961.4874466745575</v>
+        <v>952.2243316769647</v>
       </c>
       <c r="S29" t="n">
-        <v>801.9120807053017</v>
+        <v>792.6489657077088</v>
       </c>
       <c r="T29" t="n">
-        <v>801.9120807053017</v>
+        <v>577.2035817434821</v>
       </c>
       <c r="U29" t="n">
-        <v>801.9120807053017</v>
+        <v>577.2035817434821</v>
       </c>
       <c r="V29" t="n">
-        <v>801.9120807053017</v>
+        <v>577.2035817434821</v>
       </c>
       <c r="W29" t="n">
-        <v>801.9120807053017</v>
+        <v>334.4037214721292</v>
       </c>
       <c r="X29" t="n">
-        <v>630.2075333591888</v>
+        <v>91.60386120077627</v>
       </c>
       <c r="Y29" t="n">
-        <v>387.4076730878359</v>
+        <v>91.60386120077627</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>587.2371839795646</v>
+        <v>307.0494034522289</v>
       </c>
       <c r="C30" t="n">
-        <v>412.7841546984376</v>
+        <v>307.0494034522289</v>
       </c>
       <c r="D30" t="n">
-        <v>412.7841546984376</v>
+        <v>307.0494034522289</v>
       </c>
       <c r="E30" t="n">
-        <v>258.4280325512337</v>
+        <v>307.0494034522289</v>
       </c>
       <c r="F30" t="n">
-        <v>258.4280325512337</v>
+        <v>307.0494034522289</v>
       </c>
       <c r="G30" t="n">
-        <v>120.9077348891539</v>
+        <v>169.5291057901491</v>
       </c>
       <c r="H30" t="n">
-        <v>19.22974893349115</v>
+        <v>67.8511198344864</v>
       </c>
       <c r="I30" t="n">
         <v>19.22974893349115</v>
       </c>
       <c r="J30" t="n">
-        <v>19.22974893349115</v>
+        <v>130.5830200438053</v>
       </c>
       <c r="K30" t="n">
-        <v>74.35048382144819</v>
+        <v>185.7037549317623</v>
       </c>
       <c r="L30" t="n">
-        <v>278.2822302305985</v>
+        <v>306.142926464957</v>
       </c>
       <c r="M30" t="n">
-        <v>438.1859308333807</v>
+        <v>466.0466270677391</v>
       </c>
       <c r="N30" t="n">
-        <v>616.7304514985547</v>
+        <v>644.5911477329131</v>
       </c>
       <c r="O30" t="n">
-        <v>854.6985945505077</v>
+        <v>785.7047074394247</v>
       </c>
       <c r="P30" t="n">
-        <v>948.6216007628877</v>
+        <v>879.6277136518048</v>
       </c>
       <c r="Q30" t="n">
-        <v>961.4874466745575</v>
+        <v>961.4874466745574</v>
       </c>
       <c r="R30" t="n">
-        <v>935.4768247015329</v>
+        <v>935.4768247015328</v>
       </c>
       <c r="S30" t="n">
-        <v>784.5445022737593</v>
+        <v>935.4768247015328</v>
       </c>
       <c r="T30" t="n">
-        <v>587.2371839795646</v>
+        <v>935.4768247015328</v>
       </c>
       <c r="U30" t="n">
-        <v>587.2371839795646</v>
+        <v>757.6095624885357</v>
       </c>
       <c r="V30" t="n">
-        <v>587.2371839795646</v>
+        <v>757.6095624885357</v>
       </c>
       <c r="W30" t="n">
-        <v>587.2371839795646</v>
+        <v>514.8097022171828</v>
       </c>
       <c r="X30" t="n">
-        <v>587.2371839795646</v>
+        <v>514.8097022171828</v>
       </c>
       <c r="Y30" t="n">
-        <v>587.2371839795646</v>
+        <v>307.0494034522289</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>492.7757610801616</v>
+        <v>166.1196964314015</v>
       </c>
       <c r="C31" t="n">
-        <v>342.7454922624362</v>
+        <v>166.1196964314015</v>
       </c>
       <c r="D31" t="n">
-        <v>342.7454922624362</v>
+        <v>166.1196964314015</v>
       </c>
       <c r="E31" t="n">
-        <v>342.7454922624362</v>
+        <v>166.1196964314015</v>
       </c>
       <c r="F31" t="n">
-        <v>342.7454922624362</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="G31" t="n">
-        <v>174.0725001303837</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="H31" t="n">
         <v>19.22974893349115</v>
@@ -6642,31 +6642,31 @@
         <v>961.4874466745576</v>
       </c>
       <c r="Q31" t="n">
-        <v>961.4874466745576</v>
+        <v>959.4362519089437</v>
       </c>
       <c r="R31" t="n">
-        <v>961.4874466745576</v>
+        <v>959.4362519089437</v>
       </c>
       <c r="S31" t="n">
-        <v>961.4874466745576</v>
+        <v>894.5192772454603</v>
       </c>
       <c r="T31" t="n">
-        <v>735.5756213515145</v>
+        <v>894.5192772454603</v>
       </c>
       <c r="U31" t="n">
-        <v>735.5756213515145</v>
+        <v>651.7194169741074</v>
       </c>
       <c r="V31" t="n">
-        <v>492.7757610801616</v>
+        <v>408.9195567027544</v>
       </c>
       <c r="W31" t="n">
-        <v>492.7757610801616</v>
+        <v>166.1196964314015</v>
       </c>
       <c r="X31" t="n">
-        <v>492.7757610801616</v>
+        <v>166.1196964314015</v>
       </c>
       <c r="Y31" t="n">
-        <v>492.7757610801616</v>
+        <v>166.1196964314015</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>549.8491054363559</v>
+        <v>262.0296092048441</v>
       </c>
       <c r="C32" t="n">
-        <v>549.8491054363559</v>
+        <v>262.0296092048441</v>
       </c>
       <c r="D32" t="n">
-        <v>549.8491054363559</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="E32" t="n">
-        <v>307.049245165003</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="F32" t="n">
-        <v>64.24938489365005</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="G32" t="n">
-        <v>64.24938489365005</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="H32" t="n">
-        <v>64.24938489365005</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="I32" t="n">
         <v>19.22974893349115</v>
@@ -6736,16 +6736,16 @@
         <v>792.6489657077088</v>
       </c>
       <c r="V32" t="n">
-        <v>549.8491054363559</v>
+        <v>747.6293297475499</v>
       </c>
       <c r="W32" t="n">
-        <v>549.8491054363559</v>
+        <v>504.829469476197</v>
       </c>
       <c r="X32" t="n">
-        <v>549.8491054363559</v>
+        <v>262.0296092048441</v>
       </c>
       <c r="Y32" t="n">
-        <v>549.8491054363559</v>
+        <v>262.0296092048441</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>602.703624041251</v>
+        <v>404.9625905243488</v>
       </c>
       <c r="C33" t="n">
-        <v>428.250594760124</v>
+        <v>404.9625905243488</v>
       </c>
       <c r="D33" t="n">
-        <v>428.250594760124</v>
+        <v>404.9625905243488</v>
       </c>
       <c r="E33" t="n">
-        <v>303.2846045686861</v>
+        <v>404.9625905243488</v>
       </c>
       <c r="F33" t="n">
-        <v>156.750046595571</v>
+        <v>258.4280325512337</v>
       </c>
       <c r="G33" t="n">
-        <v>19.22974893349115</v>
+        <v>120.9077348891539</v>
       </c>
       <c r="H33" t="n">
         <v>19.22974893349115</v>
@@ -6803,28 +6803,28 @@
         <v>961.4874466745574</v>
       </c>
       <c r="R33" t="n">
-        <v>961.4874466745574</v>
+        <v>935.4768247015328</v>
       </c>
       <c r="S33" t="n">
-        <v>810.5551242467839</v>
+        <v>935.4768247015328</v>
       </c>
       <c r="T33" t="n">
-        <v>810.5551242467839</v>
+        <v>875.9064290754111</v>
       </c>
       <c r="U33" t="n">
-        <v>810.5551242467839</v>
+        <v>647.7624507957017</v>
       </c>
       <c r="V33" t="n">
-        <v>810.5551242467839</v>
+        <v>647.7624507957017</v>
       </c>
       <c r="W33" t="n">
-        <v>810.5551242467839</v>
+        <v>404.9625905243488</v>
       </c>
       <c r="X33" t="n">
-        <v>602.703624041251</v>
+        <v>404.9625905243488</v>
       </c>
       <c r="Y33" t="n">
-        <v>602.703624041251</v>
+        <v>404.9625905243488</v>
       </c>
     </row>
     <row r="34">
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>932.9856154195754</v>
+        <v>637.5485333427397</v>
       </c>
       <c r="C34" t="n">
-        <v>764.0494324916685</v>
+        <v>637.5485333427397</v>
       </c>
       <c r="D34" t="n">
-        <v>764.0494324916685</v>
+        <v>637.5485333427397</v>
       </c>
       <c r="E34" t="n">
-        <v>616.1363389092754</v>
+        <v>489.6354397603466</v>
       </c>
       <c r="F34" t="n">
-        <v>469.246391411365</v>
+        <v>342.7454922624362</v>
       </c>
       <c r="G34" t="n">
-        <v>300.5733992793125</v>
+        <v>174.0725001303837</v>
       </c>
       <c r="H34" t="n">
-        <v>145.7306480824199</v>
+        <v>19.22974893349115</v>
       </c>
       <c r="I34" t="n">
         <v>19.22974893349115</v>
       </c>
       <c r="J34" t="n">
-        <v>19.22974893349115</v>
+        <v>19.22974893349094</v>
       </c>
       <c r="K34" t="n">
-        <v>112.7455183573971</v>
+        <v>112.7455183573969</v>
       </c>
       <c r="L34" t="n">
-        <v>287.9399414704185</v>
+        <v>287.9399414704184</v>
       </c>
       <c r="M34" t="n">
         <v>483.0470196669107</v>
@@ -6885,25 +6885,25 @@
         <v>961.4874466745574</v>
       </c>
       <c r="S34" t="n">
-        <v>932.9856154195754</v>
+        <v>880.3483936140926</v>
       </c>
       <c r="T34" t="n">
-        <v>932.9856154195754</v>
+        <v>880.3483936140926</v>
       </c>
       <c r="U34" t="n">
-        <v>932.9856154195754</v>
+        <v>880.3483936140926</v>
       </c>
       <c r="V34" t="n">
-        <v>932.9856154195754</v>
+        <v>880.3483936140926</v>
       </c>
       <c r="W34" t="n">
-        <v>932.9856154195754</v>
+        <v>637.5485333427397</v>
       </c>
       <c r="X34" t="n">
-        <v>932.9856154195754</v>
+        <v>637.5485333427397</v>
       </c>
       <c r="Y34" t="n">
-        <v>932.9856154195754</v>
+        <v>637.5485333427397</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.03169853201</v>
+        <v>381.9887606165163</v>
       </c>
       <c r="C35" t="n">
-        <v>222.4133946472604</v>
+        <v>381.9887606165163</v>
       </c>
       <c r="D35" t="n">
-        <v>222.4133946472604</v>
+        <v>381.9887606165163</v>
       </c>
       <c r="E35" t="n">
-        <v>222.4133946472604</v>
+        <v>340.8061374354135</v>
       </c>
       <c r="F35" t="n">
-        <v>22.79509076251094</v>
+        <v>141.187833550664</v>
       </c>
       <c r="G35" t="n">
-        <v>22.79509076251094</v>
+        <v>141.187833550664</v>
       </c>
       <c r="H35" t="n">
-        <v>22.79509076251094</v>
+        <v>141.187833550664</v>
       </c>
       <c r="I35" t="n">
         <v>15.80976966767216</v>
       </c>
       <c r="J35" t="n">
-        <v>24.77728899937079</v>
+        <v>24.77728899937074</v>
       </c>
       <c r="K35" t="n">
-        <v>88.95579413398585</v>
+        <v>88.95579413398588</v>
       </c>
       <c r="L35" t="n">
-        <v>205.4766666630394</v>
+        <v>205.4766666630395</v>
       </c>
       <c r="M35" t="n">
-        <v>366.7980259642592</v>
+        <v>366.7980259642591</v>
       </c>
       <c r="N35" t="n">
-        <v>535.3435418940942</v>
+        <v>535.343541894094</v>
       </c>
       <c r="O35" t="n">
-        <v>681.1610319510479</v>
+        <v>681.1610319510474</v>
       </c>
       <c r="P35" t="n">
-        <v>771.1118852488393</v>
+        <v>771.1118852488389</v>
       </c>
       <c r="Q35" t="n">
         <v>790.488483383608</v>
@@ -6964,25 +6964,25 @@
         <v>781.2253683860152</v>
       </c>
       <c r="S35" t="n">
-        <v>621.6500024167594</v>
+        <v>781.2253683860152</v>
       </c>
       <c r="T35" t="n">
-        <v>621.6500024167594</v>
+        <v>781.2253683860152</v>
       </c>
       <c r="U35" t="n">
-        <v>621.6500024167594</v>
+        <v>781.2253683860152</v>
       </c>
       <c r="V35" t="n">
-        <v>621.6500024167594</v>
+        <v>781.2253683860152</v>
       </c>
       <c r="W35" t="n">
-        <v>422.03169853201</v>
+        <v>781.2253683860152</v>
       </c>
       <c r="X35" t="n">
-        <v>422.03169853201</v>
+        <v>781.2253683860152</v>
       </c>
       <c r="Y35" t="n">
-        <v>422.03169853201</v>
+        <v>581.6070645012658</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>498.4346636155059</v>
+        <v>709.7144759252365</v>
       </c>
       <c r="C36" t="n">
-        <v>323.9816343343789</v>
+        <v>709.7144759252365</v>
       </c>
       <c r="D36" t="n">
-        <v>175.0472246731277</v>
+        <v>560.7800662639852</v>
       </c>
       <c r="E36" t="n">
-        <v>15.80976966767216</v>
+        <v>401.5426112585297</v>
       </c>
       <c r="F36" t="n">
-        <v>15.80976966767216</v>
+        <v>255.0080532854147</v>
       </c>
       <c r="G36" t="n">
-        <v>15.80976966767216</v>
+        <v>117.4877556233349</v>
       </c>
       <c r="H36" t="n">
         <v>15.80976966767216</v>
@@ -7016,22 +7016,22 @@
         <v>15.80976966767216</v>
       </c>
       <c r="J36" t="n">
-        <v>28.57794386393885</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="K36" t="n">
-        <v>83.6986787518959</v>
+        <v>70.93050455562921</v>
       </c>
       <c r="L36" t="n">
-        <v>204.1378502850905</v>
+        <v>191.3696760888238</v>
       </c>
       <c r="M36" t="n">
-        <v>364.0415508878726</v>
+        <v>351.2733766916059</v>
       </c>
       <c r="N36" t="n">
-        <v>542.5860715530466</v>
+        <v>529.8178973567799</v>
       </c>
       <c r="O36" t="n">
-        <v>683.6996312595581</v>
+        <v>670.9314570632914</v>
       </c>
       <c r="P36" t="n">
         <v>777.6226374719382</v>
@@ -7046,22 +7046,22 @@
         <v>790.488483383608</v>
       </c>
       <c r="T36" t="n">
-        <v>666.6500006355739</v>
+        <v>790.488483383608</v>
       </c>
       <c r="U36" t="n">
-        <v>666.6500006355739</v>
+        <v>790.488483383608</v>
       </c>
       <c r="V36" t="n">
-        <v>666.6500006355739</v>
+        <v>790.488483383608</v>
       </c>
       <c r="W36" t="n">
-        <v>666.6500006355739</v>
+        <v>790.488483383608</v>
       </c>
       <c r="X36" t="n">
-        <v>666.6500006355739</v>
+        <v>790.488483383608</v>
       </c>
       <c r="Y36" t="n">
-        <v>666.6500006355739</v>
+        <v>790.488483383608</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>608.8400185533683</v>
+        <v>165.9264090800079</v>
       </c>
       <c r="C37" t="n">
-        <v>608.8400185533683</v>
+        <v>165.9264090800079</v>
       </c>
       <c r="D37" t="n">
-        <v>458.7233791410325</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="E37" t="n">
-        <v>458.7233791410325</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="F37" t="n">
-        <v>339.3255129966172</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="G37" t="n">
-        <v>170.6525208645647</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="H37" t="n">
         <v>15.80976966767216</v>
@@ -7125,22 +7125,22 @@
         <v>790.488483383608</v>
       </c>
       <c r="T37" t="n">
-        <v>790.488483383608</v>
+        <v>764.7813207342564</v>
       </c>
       <c r="U37" t="n">
-        <v>790.488483383608</v>
+        <v>764.7813207342564</v>
       </c>
       <c r="V37" t="n">
-        <v>790.488483383608</v>
+        <v>565.1630168495069</v>
       </c>
       <c r="W37" t="n">
-        <v>790.488483383608</v>
+        <v>365.5447129647574</v>
       </c>
       <c r="X37" t="n">
-        <v>790.488483383608</v>
+        <v>165.9264090800079</v>
       </c>
       <c r="Y37" t="n">
-        <v>790.488483383608</v>
+        <v>165.9264090800079</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>15.80976966767216</v>
+        <v>381.9887606165163</v>
       </c>
       <c r="C38" t="n">
-        <v>15.80976966767216</v>
+        <v>381.9887606165163</v>
       </c>
       <c r="D38" t="n">
-        <v>15.80976966767216</v>
+        <v>381.9887606165163</v>
       </c>
       <c r="E38" t="n">
-        <v>15.80976966767216</v>
+        <v>381.9887606165163</v>
       </c>
       <c r="F38" t="n">
-        <v>15.80976966767216</v>
+        <v>215.4280735524217</v>
       </c>
       <c r="G38" t="n">
-        <v>15.80976966767216</v>
+        <v>215.4280735524217</v>
       </c>
       <c r="H38" t="n">
         <v>15.80976966767216</v>
@@ -7174,19 +7174,19 @@
         <v>15.80976966767216</v>
       </c>
       <c r="J38" t="n">
-        <v>24.77728899937077</v>
+        <v>24.77728899937079</v>
       </c>
       <c r="K38" t="n">
         <v>88.95579413398585</v>
       </c>
       <c r="L38" t="n">
-        <v>205.4766666630391</v>
+        <v>205.476666663039</v>
       </c>
       <c r="M38" t="n">
         <v>366.7980259642588</v>
       </c>
       <c r="N38" t="n">
-        <v>535.343541894094</v>
+        <v>535.3435418940938</v>
       </c>
       <c r="O38" t="n">
         <v>681.1610319510476</v>
@@ -7201,25 +7201,25 @@
         <v>781.2253683860152</v>
       </c>
       <c r="S38" t="n">
-        <v>621.6500024167594</v>
+        <v>781.2253683860152</v>
       </c>
       <c r="T38" t="n">
-        <v>422.03169853201</v>
+        <v>581.6070645012658</v>
       </c>
       <c r="U38" t="n">
-        <v>415.0463774371711</v>
+        <v>381.9887606165163</v>
       </c>
       <c r="V38" t="n">
-        <v>215.4280735524217</v>
+        <v>381.9887606165163</v>
       </c>
       <c r="W38" t="n">
-        <v>15.80976966767216</v>
+        <v>381.9887606165163</v>
       </c>
       <c r="X38" t="n">
-        <v>15.80976966767216</v>
+        <v>381.9887606165163</v>
       </c>
       <c r="Y38" t="n">
-        <v>15.80976966767216</v>
+        <v>381.9887606165163</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>321.5817826462427</v>
+        <v>327.7830966108791</v>
       </c>
       <c r="C39" t="n">
-        <v>321.5817826462427</v>
+        <v>153.330067329752</v>
       </c>
       <c r="D39" t="n">
-        <v>321.5817826462427</v>
+        <v>153.330067329752</v>
       </c>
       <c r="E39" t="n">
-        <v>162.3443276407872</v>
+        <v>153.330067329752</v>
       </c>
       <c r="F39" t="n">
-        <v>15.80976966767216</v>
+        <v>153.330067329752</v>
       </c>
       <c r="G39" t="n">
         <v>15.80976966767216</v>
@@ -7268,7 +7268,7 @@
         <v>529.8178973567799</v>
       </c>
       <c r="O39" t="n">
-        <v>683.6996312595581</v>
+        <v>670.9314570632914</v>
       </c>
       <c r="P39" t="n">
         <v>777.6226374719382</v>
@@ -7277,28 +7277,28 @@
         <v>790.488483383608</v>
       </c>
       <c r="R39" t="n">
-        <v>790.488483383608</v>
+        <v>764.4778614105834</v>
       </c>
       <c r="S39" t="n">
-        <v>718.5074048251868</v>
+        <v>695.6167375156966</v>
       </c>
       <c r="T39" t="n">
-        <v>521.2000865309922</v>
+        <v>695.6167375156966</v>
       </c>
       <c r="U39" t="n">
-        <v>321.5817826462427</v>
+        <v>695.6167375156966</v>
       </c>
       <c r="V39" t="n">
-        <v>321.5817826462427</v>
+        <v>695.6167375156966</v>
       </c>
       <c r="W39" t="n">
-        <v>321.5817826462427</v>
+        <v>495.9984336309471</v>
       </c>
       <c r="X39" t="n">
-        <v>321.5817826462427</v>
+        <v>495.9984336309471</v>
       </c>
       <c r="Y39" t="n">
-        <v>321.5817826462427</v>
+        <v>495.9984336309471</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.80976966767216</v>
+        <v>486.2154604945276</v>
       </c>
       <c r="C40" t="n">
-        <v>15.80976966767216</v>
+        <v>486.2154604945276</v>
       </c>
       <c r="D40" t="n">
-        <v>15.80976966767216</v>
+        <v>486.2154604945276</v>
       </c>
       <c r="E40" t="n">
-        <v>15.80976966767216</v>
+        <v>486.2154604945276</v>
       </c>
       <c r="F40" t="n">
-        <v>15.80976966767216</v>
+        <v>339.3255129966172</v>
       </c>
       <c r="G40" t="n">
-        <v>15.80976966767216</v>
+        <v>170.6525208645647</v>
       </c>
       <c r="H40" t="n">
         <v>15.80976966767216</v>
@@ -7341,43 +7341,43 @@
         <v>191.0041927806936</v>
       </c>
       <c r="M40" t="n">
-        <v>386.1112709771859</v>
+        <v>312.3046411231131</v>
       </c>
       <c r="N40" t="n">
-        <v>581.7571706146289</v>
+        <v>507.9505407605561</v>
       </c>
       <c r="O40" t="n">
-        <v>746.6885271652269</v>
+        <v>672.8818973111541</v>
       </c>
       <c r="P40" t="n">
         <v>790.488483383608</v>
       </c>
       <c r="Q40" t="n">
-        <v>790.488483383608</v>
+        <v>788.4372886179941</v>
       </c>
       <c r="R40" t="n">
-        <v>790.488483383608</v>
+        <v>788.4372886179941</v>
       </c>
       <c r="S40" t="n">
-        <v>790.488483383608</v>
+        <v>788.4372886179941</v>
       </c>
       <c r="T40" t="n">
-        <v>614.6646813219206</v>
+        <v>788.4372886179941</v>
       </c>
       <c r="U40" t="n">
-        <v>415.0463774371711</v>
+        <v>788.4372886179941</v>
       </c>
       <c r="V40" t="n">
-        <v>215.4280735524217</v>
+        <v>588.8189847332446</v>
       </c>
       <c r="W40" t="n">
-        <v>15.80976966767216</v>
+        <v>486.2154604945276</v>
       </c>
       <c r="X40" t="n">
-        <v>15.80976966767216</v>
+        <v>486.2154604945276</v>
       </c>
       <c r="Y40" t="n">
-        <v>15.80976966767216</v>
+        <v>486.2154604945276</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.03169853201</v>
+        <v>231.6765096448532</v>
       </c>
       <c r="C41" t="n">
-        <v>222.4133946472604</v>
+        <v>231.6765096448532</v>
       </c>
       <c r="D41" t="n">
-        <v>215.4280735524217</v>
+        <v>32.0582057601037</v>
       </c>
       <c r="E41" t="n">
         <v>15.80976966767216</v>
@@ -7411,19 +7411,19 @@
         <v>15.80976966767216</v>
       </c>
       <c r="J41" t="n">
-        <v>24.77728899937063</v>
+        <v>24.77728899937079</v>
       </c>
       <c r="K41" t="n">
-        <v>88.95579413398571</v>
+        <v>88.95579413398585</v>
       </c>
       <c r="L41" t="n">
-        <v>205.4766666630393</v>
+        <v>205.4766666630394</v>
       </c>
       <c r="M41" t="n">
-        <v>366.7980259642591</v>
+        <v>366.7980259642592</v>
       </c>
       <c r="N41" t="n">
-        <v>535.343541894094</v>
+        <v>535.3435418940942</v>
       </c>
       <c r="O41" t="n">
         <v>681.1610319510479</v>
@@ -7435,28 +7435,28 @@
         <v>790.488483383608</v>
       </c>
       <c r="R41" t="n">
-        <v>781.2253683860152</v>
+        <v>790.488483383608</v>
       </c>
       <c r="S41" t="n">
-        <v>621.6500024167594</v>
+        <v>630.9131174143522</v>
       </c>
       <c r="T41" t="n">
-        <v>621.6500024167594</v>
+        <v>431.2948135296027</v>
       </c>
       <c r="U41" t="n">
-        <v>422.03169853201</v>
+        <v>431.2948135296027</v>
       </c>
       <c r="V41" t="n">
-        <v>422.03169853201</v>
+        <v>431.2948135296027</v>
       </c>
       <c r="W41" t="n">
-        <v>422.03169853201</v>
+        <v>431.2948135296027</v>
       </c>
       <c r="X41" t="n">
-        <v>422.03169853201</v>
+        <v>431.2948135296027</v>
       </c>
       <c r="Y41" t="n">
-        <v>422.03169853201</v>
+        <v>431.2948135296027</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>299.864625302867</v>
+        <v>153.330067329752</v>
       </c>
       <c r="C42" t="n">
-        <v>299.864625302867</v>
+        <v>153.330067329752</v>
       </c>
       <c r="D42" t="n">
-        <v>299.864625302867</v>
+        <v>153.330067329752</v>
       </c>
       <c r="E42" t="n">
-        <v>299.864625302867</v>
+        <v>153.330067329752</v>
       </c>
       <c r="F42" t="n">
         <v>153.330067329752</v>
@@ -7493,10 +7493,10 @@
         <v>15.80976966767216</v>
       </c>
       <c r="K42" t="n">
-        <v>83.6986787518959</v>
+        <v>70.93050455562921</v>
       </c>
       <c r="L42" t="n">
-        <v>204.1378502850905</v>
+        <v>191.3696760888238</v>
       </c>
       <c r="M42" t="n">
         <v>364.0415508878726</v>
@@ -7517,25 +7517,25 @@
         <v>790.488483383608</v>
       </c>
       <c r="S42" t="n">
-        <v>790.488483383608</v>
+        <v>749.8739933934457</v>
       </c>
       <c r="T42" t="n">
-        <v>790.488483383608</v>
+        <v>552.566675099251</v>
       </c>
       <c r="U42" t="n">
-        <v>699.101233072366</v>
+        <v>352.9483712145015</v>
       </c>
       <c r="V42" t="n">
-        <v>499.4829291876165</v>
+        <v>352.9483712145015</v>
       </c>
       <c r="W42" t="n">
-        <v>299.864625302867</v>
+        <v>153.330067329752</v>
       </c>
       <c r="X42" t="n">
-        <v>299.864625302867</v>
+        <v>153.330067329752</v>
       </c>
       <c r="Y42" t="n">
-        <v>299.864625302867</v>
+        <v>153.330067329752</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>590.8701794988585</v>
+        <v>479.9198438765604</v>
       </c>
       <c r="C43" t="n">
-        <v>590.8701794988585</v>
+        <v>310.9836609486535</v>
       </c>
       <c r="D43" t="n">
-        <v>590.8701794988585</v>
+        <v>310.9836609486535</v>
       </c>
       <c r="E43" t="n">
-        <v>590.8701794988585</v>
+        <v>310.9836609486535</v>
       </c>
       <c r="F43" t="n">
-        <v>465.826412145546</v>
+        <v>310.9836609486535</v>
       </c>
       <c r="G43" t="n">
-        <v>297.1534200134935</v>
+        <v>142.310668816601</v>
       </c>
       <c r="H43" t="n">
         <v>142.310668816601</v>
@@ -7602,19 +7602,19 @@
         <v>790.488483383608</v>
       </c>
       <c r="U43" t="n">
-        <v>790.488483383608</v>
+        <v>590.8701794988585</v>
       </c>
       <c r="V43" t="n">
-        <v>790.488483383608</v>
+        <v>590.8701794988585</v>
       </c>
       <c r="W43" t="n">
-        <v>590.8701794988585</v>
+        <v>479.9198438765604</v>
       </c>
       <c r="X43" t="n">
-        <v>590.8701794988585</v>
+        <v>479.9198438765604</v>
       </c>
       <c r="Y43" t="n">
-        <v>590.8701794988585</v>
+        <v>479.9198438765604</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>590.8701794988585</v>
+        <v>215.4280735524217</v>
       </c>
       <c r="C44" t="n">
-        <v>590.8701794988585</v>
+        <v>215.4280735524217</v>
       </c>
       <c r="D44" t="n">
-        <v>590.8701794988585</v>
+        <v>215.4280735524217</v>
       </c>
       <c r="E44" t="n">
-        <v>415.0463774371711</v>
+        <v>215.4280735524217</v>
       </c>
       <c r="F44" t="n">
         <v>215.4280735524217</v>
@@ -7648,22 +7648,22 @@
         <v>15.80976966767216</v>
       </c>
       <c r="J44" t="n">
-        <v>24.77728899937074</v>
+        <v>24.77728899937079</v>
       </c>
       <c r="K44" t="n">
-        <v>88.95579413398588</v>
+        <v>88.95579413398585</v>
       </c>
       <c r="L44" t="n">
-        <v>205.4766666630395</v>
+        <v>205.4766666630394</v>
       </c>
       <c r="M44" t="n">
-        <v>366.7980259642591</v>
+        <v>366.7980259642588</v>
       </c>
       <c r="N44" t="n">
-        <v>535.343541894094</v>
+        <v>535.3435418940938</v>
       </c>
       <c r="O44" t="n">
-        <v>681.1610319510474</v>
+        <v>681.1610319510476</v>
       </c>
       <c r="P44" t="n">
         <v>771.1118852488389</v>
@@ -7672,28 +7672,28 @@
         <v>790.488483383608</v>
       </c>
       <c r="R44" t="n">
-        <v>790.488483383608</v>
+        <v>781.2253683860152</v>
       </c>
       <c r="S44" t="n">
-        <v>790.488483383608</v>
+        <v>621.6500024167594</v>
       </c>
       <c r="T44" t="n">
-        <v>790.488483383608</v>
+        <v>614.6646813219206</v>
       </c>
       <c r="U44" t="n">
-        <v>790.488483383608</v>
+        <v>415.0463774371711</v>
       </c>
       <c r="V44" t="n">
-        <v>790.488483383608</v>
+        <v>415.0463774371711</v>
       </c>
       <c r="W44" t="n">
-        <v>590.8701794988585</v>
+        <v>415.0463774371711</v>
       </c>
       <c r="X44" t="n">
-        <v>590.8701794988585</v>
+        <v>415.0463774371711</v>
       </c>
       <c r="Y44" t="n">
-        <v>590.8701794988585</v>
+        <v>215.4280735524217</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>393.5628612046638</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="C45" t="n">
-        <v>393.5628612046638</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="D45" t="n">
-        <v>393.5628612046638</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="E45" t="n">
-        <v>393.5628612046638</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="F45" t="n">
-        <v>247.0283032315488</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="G45" t="n">
-        <v>109.5080055694689</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="H45" t="n">
         <v>15.80976966767216</v>
@@ -7730,22 +7730,22 @@
         <v>15.80976966767216</v>
       </c>
       <c r="K45" t="n">
-        <v>83.6986787518959</v>
+        <v>70.93050455562921</v>
       </c>
       <c r="L45" t="n">
-        <v>204.1378502850905</v>
+        <v>191.3696760888238</v>
       </c>
       <c r="M45" t="n">
-        <v>364.0415508878726</v>
+        <v>351.2733766916059</v>
       </c>
       <c r="N45" t="n">
-        <v>542.5860715530466</v>
+        <v>529.8178973567799</v>
       </c>
       <c r="O45" t="n">
-        <v>683.6996312595581</v>
+        <v>670.9314570632914</v>
       </c>
       <c r="P45" t="n">
-        <v>777.6226374719382</v>
+        <v>764.8544632756715</v>
       </c>
       <c r="Q45" t="n">
         <v>790.488483383608</v>
@@ -7757,22 +7757,22 @@
         <v>790.488483383608</v>
       </c>
       <c r="T45" t="n">
-        <v>593.1811650894133</v>
+        <v>790.488483383608</v>
       </c>
       <c r="U45" t="n">
-        <v>593.1811650894133</v>
+        <v>790.488483383608</v>
       </c>
       <c r="V45" t="n">
-        <v>393.5628612046638</v>
+        <v>590.8701794988585</v>
       </c>
       <c r="W45" t="n">
-        <v>393.5628612046638</v>
+        <v>391.2518756141091</v>
       </c>
       <c r="X45" t="n">
-        <v>393.5628612046638</v>
+        <v>191.6335717293595</v>
       </c>
       <c r="Y45" t="n">
-        <v>393.5628612046638</v>
+        <v>15.80976966767216</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>391.2518756141091</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="C46" t="n">
-        <v>391.2518756141091</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="D46" t="n">
-        <v>391.2518756141091</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="E46" t="n">
-        <v>391.2518756141091</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="F46" t="n">
-        <v>391.2518756141091</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="G46" t="n">
-        <v>297.1534200134935</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="H46" t="n">
-        <v>142.310668816601</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="I46" t="n">
         <v>15.80976966767216</v>
@@ -7827,31 +7827,31 @@
         <v>790.488483383608</v>
       </c>
       <c r="Q46" t="n">
-        <v>790.488483383608</v>
+        <v>788.4372886179941</v>
       </c>
       <c r="R46" t="n">
-        <v>790.488483383608</v>
+        <v>788.4372886179941</v>
       </c>
       <c r="S46" t="n">
-        <v>790.488483383608</v>
+        <v>614.6646813219206</v>
       </c>
       <c r="T46" t="n">
-        <v>790.488483383608</v>
+        <v>614.6646813219206</v>
       </c>
       <c r="U46" t="n">
-        <v>790.488483383608</v>
+        <v>415.0463774371711</v>
       </c>
       <c r="V46" t="n">
-        <v>790.488483383608</v>
+        <v>415.0463774371711</v>
       </c>
       <c r="W46" t="n">
-        <v>590.8701794988585</v>
+        <v>215.4280735524217</v>
       </c>
       <c r="X46" t="n">
-        <v>391.2518756141091</v>
+        <v>15.80976966767216</v>
       </c>
       <c r="Y46" t="n">
-        <v>391.2518756141091</v>
+        <v>15.80976966767216</v>
       </c>
     </row>
   </sheetData>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>13.6129837138289</v>
+        <v>13.61298371382888</v>
       </c>
       <c r="K12" t="n">
-        <v>12.89714565279503</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>12.89714565279461</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8850,7 +8850,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>12.28339318919197</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
         <v>162.4747015415544</v>
@@ -8859,7 +8859,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>97.00638896443701</v>
+        <v>2.546015808976176</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -9087,10 +9087,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>12.28339318919194</v>
+        <v>56.52577320775852</v>
       </c>
       <c r="L16" t="n">
-        <v>87.92255017380397</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M16" t="n">
         <v>178.5096609094456</v>
@@ -9102,7 +9102,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
-        <v>135.0065633140411</v>
+        <v>16.21203192772408</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>13.61298371382888</v>
+        <v>13.61298371382885</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>12.89714565279436</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>12.8971456527945</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9324,7 +9324,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>12.28339318919194</v>
+        <v>12.28339318919193</v>
       </c>
       <c r="L19" t="n">
         <v>162.4747015415544</v>
@@ -9333,13 +9333,13 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N19" t="n">
-        <v>171.5585403321871</v>
+        <v>171.5585403321872</v>
       </c>
       <c r="O19" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P19" t="n">
-        <v>60.45441194629063</v>
+        <v>60.45441194629083</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>26.51012936662347</v>
+        <v>13.61298371382888</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>12.89714565279465</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9561,7 +9561,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>12.28339318919197</v>
+        <v>12.28339318919194</v>
       </c>
       <c r="L22" t="n">
         <v>162.4747015415544</v>
@@ -9570,13 +9570,13 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N22" t="n">
-        <v>97.00638896443655</v>
+        <v>171.5585403321872</v>
       </c>
       <c r="O22" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P22" t="n">
-        <v>135.0065633140411</v>
+        <v>60.45441194629086</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>0.1750858634111268</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>169.271701035485</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>13.61298371382888</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>69.69079506169992</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>145.5001382217908</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.66870846648909</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9798,7 +9798,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>106.7437663446524</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
         <v>162.4747015415544</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>21.72684156795857</v>
+        <v>0.1750858634111268</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>77.42099368760933</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>70.12386577991708</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>13.61298371382888</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,10 +9962,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>78.8529721708797</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>60.02386099674644</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>43.29201352065378</v>
+        <v>69.69079506169986</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>169.271701035485</v>
+        <v>0.1750858634110912</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>13.61298371382888</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>84.33593421813708</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>97.83291247014284</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>69.69079506169986</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>26.51012936662352</v>
+        <v>13.61298371382888</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>12.89714565279468</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10916,10 +10916,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>12.89714565279462</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>12.89714565279468</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -10989,7 +10989,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>178.5096609094456</v>
+        <v>103.9575095416954</v>
       </c>
       <c r="N40" t="n">
         <v>171.5585403321872</v>
@@ -10998,7 +10998,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
-        <v>60.45441194629086</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11141,13 +11141,13 @@
         <v>13.61298371382888</v>
       </c>
       <c r="K42" t="n">
-        <v>12.89714565279463</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>12.89714565279465</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>13.61298371382888</v>
       </c>
       <c r="K45" t="n">
-        <v>12.89714565279463</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>12.89714565279473</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23266,19 +23266,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>184.3082492263598</v>
       </c>
       <c r="F11" t="n">
-        <v>209.2539248958094</v>
+        <v>209.2539248958095</v>
       </c>
       <c r="G11" t="n">
-        <v>215.4407721370693</v>
+        <v>413.0628929829713</v>
       </c>
       <c r="H11" t="n">
-        <v>142.4704302596744</v>
+        <v>316.5359943007448</v>
       </c>
       <c r="I11" t="n">
-        <v>124.1242832441619</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>9.170483847616822</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>157.9796123095633</v>
+        <v>117.2088153602716</v>
       </c>
       <c r="T11" t="n">
         <v>213.2909301245844</v>
@@ -23317,7 +23317,7 @@
         <v>251.1664653452634</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>130.1301376242329</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>188.6158178101516</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23339,22 +23339,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>61.53573254692492</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>25.75051575329435</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>149.4229992034958</v>
@@ -23396,10 +23396,10 @@
         <v>225.8625384969122</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>35.17846630352329</v>
       </c>
       <c r="W12" t="n">
-        <v>72.41880740447837</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>82.85848405472723</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23439,7 +23439,7 @@
         <v>125.2358901574395</v>
       </c>
       <c r="J13" t="n">
-        <v>22.32567777239204</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>8.884997443868741</v>
+        <v>8.88499744386877</v>
       </c>
       <c r="T13" t="n">
-        <v>26.03058622391069</v>
+        <v>223.6527070698127</v>
       </c>
       <c r="U13" t="n">
-        <v>88.64210575707651</v>
+        <v>286.2642266029785</v>
       </c>
       <c r="V13" t="n">
-        <v>212.2204169991897</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23503,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>207.8648060311914</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>209.2539248958095</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>215.4407721370693</v>
+        <v>413.0628929829713</v>
       </c>
       <c r="H14" t="n">
         <v>118.9138734548429</v>
       </c>
       <c r="I14" t="n">
-        <v>124.1242832441619</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>9.170483847616794</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>157.9796123095633</v>
@@ -23551,16 +23551,16 @@
         <v>213.2909301245844</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1664653452634</v>
+        <v>53.54434449936144</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>151.6188478715111</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>328.9603037291774</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23576,16 +23576,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>13.09063325914755</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>48.1351571919853</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.75051575329434</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>149.4229992034958</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>195.3342451112527</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.8625384969122</v>
@@ -23636,7 +23636,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>72.4188074044786</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>153.2943236849236</v>
       </c>
       <c r="I16" t="n">
-        <v>125.2358901574395</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>22.32567777239203</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>16.34036496950377</v>
       </c>
       <c r="S16" t="n">
         <v>8.884997443868798</v>
       </c>
       <c r="T16" t="n">
-        <v>26.03058622391075</v>
+        <v>223.6527070698127</v>
       </c>
       <c r="U16" t="n">
-        <v>88.64210575707656</v>
+        <v>286.2642266029785</v>
       </c>
       <c r="V16" t="n">
-        <v>212.2204169991897</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23737,19 +23737,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>347.7675737367924</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>209.2539248958095</v>
+        <v>209.2539248958094</v>
       </c>
       <c r="G17" t="n">
-        <v>215.4407721370693</v>
+        <v>413.0628929829713</v>
       </c>
       <c r="H17" t="n">
-        <v>142.4704302596745</v>
+        <v>316.5359943007448</v>
       </c>
       <c r="I17" t="n">
         <v>124.1242832441619</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>9.170483847616794</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>157.9796123095633</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>213.2909301245844</v>
+        <v>15.6688092786824</v>
       </c>
       <c r="U17" t="n">
         <v>251.1664653452634</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>130.1301376242329</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>188.6158178101516</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23828,10 +23828,10 @@
         <v>136.145094685459</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>100.6612060961061</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>48.13515719198529</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>25.75051575329432</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>195.3342451112527</v>
       </c>
       <c r="U18" t="n">
-        <v>28.24041765101026</v>
+        <v>225.8625384969122</v>
       </c>
       <c r="V18" t="n">
-        <v>182.7949047726853</v>
+        <v>208.1580223118507</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>54.07286231501757</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>8.150864357575443</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>8.060574931402329</v>
       </c>
     </row>
     <row r="19">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>110.0540919981008</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,13 +23907,13 @@
         <v>166.986262210732</v>
       </c>
       <c r="H19" t="n">
-        <v>153.2943236849236</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>125.2358901574395</v>
       </c>
       <c r="J19" t="n">
-        <v>22.32567777239203</v>
+        <v>22.32567777239201</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.030682817957711</v>
+        <v>2.030682817957697</v>
       </c>
       <c r="R19" t="n">
         <v>132.1176548984743</v>
       </c>
       <c r="S19" t="n">
-        <v>32.44155424870036</v>
+        <v>8.884997443868713</v>
       </c>
       <c r="T19" t="n">
-        <v>26.03058622391075</v>
+        <v>223.6527070698127</v>
       </c>
       <c r="U19" t="n">
-        <v>88.64210575707656</v>
+        <v>286.2642266029785</v>
       </c>
       <c r="V19" t="n">
-        <v>54.51552247792605</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>88.90087749068897</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>185.1117208175787</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>167.6507709251057</v>
+        <v>358.3574238871171</v>
       </c>
       <c r="D20" t="n">
-        <v>180.6174775796126</v>
+        <v>157.060920774781</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>184.3082492263598</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23986,7 +23986,7 @@
         <v>413.0628929829713</v>
       </c>
       <c r="H20" t="n">
-        <v>316.5359943007449</v>
+        <v>316.5359943007448</v>
       </c>
       <c r="I20" t="n">
         <v>124.1242832441619</v>
@@ -24016,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>9.170483847616822</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>157.9796123095633</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>213.2909301245844</v>
@@ -24028,7 +24028,7 @@
         <v>251.1664653452634</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>130.1301376242329</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>188.6158178101517</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>139.6027430776436</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24068,7 +24068,7 @@
         <v>100.6612060961061</v>
       </c>
       <c r="I21" t="n">
-        <v>48.13515719198531</v>
+        <v>48.1351571919853</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.75051575329435</v>
+        <v>18.21813536209123</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>149.4229992034958</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>195.3342451112527</v>
       </c>
       <c r="U21" t="n">
-        <v>28.24041765101032</v>
+        <v>225.8625384969122</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>35.17846630352327</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>8.150864357575472</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.060574931402471</v>
+        <v>8.060574931402357</v>
       </c>
     </row>
     <row r="22">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>7.797098958824563</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24150,7 +24150,7 @@
         <v>125.2358901574395</v>
       </c>
       <c r="J22" t="n">
-        <v>22.32567777239204</v>
+        <v>22.32567777239203</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,10 +24171,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.030682817957725</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>132.1176548984743</v>
       </c>
       <c r="S22" t="n">
         <v>206.5071182897707</v>
@@ -24186,16 +24186,16 @@
         <v>286.2642266029785</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>54.515522477926</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>88.900877490689</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>58.65179751851198</v>
+        <v>20.96253250619279</v>
       </c>
     </row>
     <row r="23">
@@ -24211,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>114.3111799520436</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24223,10 +24223,10 @@
         <v>413.0628929829713</v>
       </c>
       <c r="H23" t="n">
-        <v>76.16413263210546</v>
+        <v>316.5359943007448</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>124.1242832441619</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>9.170483847616794</v>
       </c>
       <c r="S23" t="n">
-        <v>43.30342825193269</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>213.2909301245844</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1664653452634</v>
+        <v>10.79460367662404</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>274.0123350219608</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.8691070487737</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>129.3592390098297</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24287,25 +24287,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.145094685459</v>
+        <v>33.38287927647161</v>
       </c>
       <c r="H24" t="n">
-        <v>100.6612060961061</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>48.1351571919853</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,13 +24335,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>149.4229992034958</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>195.3342451112527</v>
       </c>
       <c r="U24" t="n">
-        <v>64.88838576140105</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24350,7 +24350,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>166.986262210732</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.2943236849236</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>125.2358901574395</v>
       </c>
       <c r="J25" t="n">
         <v>22.32567777239203</v>
@@ -24417,19 +24417,19 @@
         <v>206.5071182897707</v>
       </c>
       <c r="T25" t="n">
-        <v>198.7069965040112</v>
+        <v>177.1029452144104</v>
       </c>
       <c r="U25" t="n">
-        <v>45.89236493433913</v>
+        <v>45.89236493433916</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>11.76578165518865</v>
       </c>
       <c r="W25" t="n">
-        <v>46.15113666795162</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>142.3619799948412</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>114.3111799520436</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24463,7 +24463,7 @@
         <v>316.5359943007448</v>
       </c>
       <c r="I26" t="n">
-        <v>124.1242832441619</v>
+        <v>70.38435979598773</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>9.170483847616794</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>213.2909301245844</v>
       </c>
       <c r="U26" t="n">
-        <v>10.79460367662401</v>
+        <v>251.1664653452634</v>
       </c>
       <c r="V26" t="n">
-        <v>87.38039680149552</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>277.5905975728007</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.8660769874142</v>
       </c>
     </row>
     <row r="27">
@@ -24524,25 +24524,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>55.82513771861609</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>136.145094685459</v>
       </c>
       <c r="H27" t="n">
-        <v>100.6612060961061</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>48.1351571919853</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24575,16 +24575,16 @@
         <v>149.4229992034958</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>195.3342451112527</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8625384969122</v>
+        <v>217.7105226881975</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>11.32312149228022</v>
+        <v>11.32312149228025</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>176.7230620753207</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>68.28781048835211</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>206.5071182897707</v>
       </c>
       <c r="T28" t="n">
-        <v>223.6527070698127</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2642266029785</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>46.15113666795162</v>
+        <v>46.15113666795165</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24685,7 +24685,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>283.0326704760707</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24697,10 +24697,10 @@
         <v>413.0628929829713</v>
       </c>
       <c r="H29" t="n">
-        <v>76.16413263210546</v>
+        <v>316.5359943007448</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>124.1242832441619</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>9.170483847616794</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>213.2909301245844</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.1664653452634</v>
@@ -24742,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.8691070487737</v>
       </c>
       <c r="X29" t="n">
-        <v>199.7435988058172</v>
+        <v>129.3592390098297</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.8660769874142</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24761,13 +24761,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>4.832519529669099</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24779,7 +24779,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>48.1351571919853</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>149.4229992034958</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>195.3342451112527</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8625384969122</v>
+        <v>49.77394890604515</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>11.32312149228025</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>18.71685496907975</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.986262210732</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.2943236849236</v>
       </c>
       <c r="I31" t="n">
         <v>125.2358901574395</v>
@@ -24882,25 +24882,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.030682817957711</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>132.1176548984743</v>
       </c>
       <c r="S31" t="n">
-        <v>206.5071182897707</v>
+        <v>142.2393133729222</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>223.6527070698127</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2642266029785</v>
+        <v>45.89236493433916</v>
       </c>
       <c r="V31" t="n">
-        <v>11.76578165518862</v>
+        <v>11.76578165518865</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>46.15113666795165</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24922,13 +24922,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>114.3111799520436</v>
       </c>
       <c r="E32" t="n">
-        <v>141.5585084036224</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>166.5041840730721</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>413.0628929829713</v>
@@ -24937,7 +24937,7 @@
         <v>316.5359943007448</v>
       </c>
       <c r="I32" t="n">
-        <v>79.55484364360457</v>
+        <v>124.1242832441619</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24976,13 +24976,13 @@
         <v>251.1664653452634</v>
       </c>
       <c r="V32" t="n">
-        <v>87.38039680149555</v>
+        <v>283.1828188695776</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.8691070487737</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>129.3592390098297</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24998,13 +24998,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>33.92875016587735</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -25013,7 +25013,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>100.6612060961061</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>48.1351571919853</v>
@@ -25043,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.75051575329434</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>149.4229992034958</v>
       </c>
       <c r="T33" t="n">
-        <v>195.3342451112527</v>
+        <v>136.3595534413922</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8625384969122</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>11.32312149228025</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>125.2358901574395</v>
       </c>
       <c r="J34" t="n">
         <v>22.32567777239203</v>
@@ -25125,7 +25125,7 @@
         <v>132.1176548984743</v>
       </c>
       <c r="S34" t="n">
-        <v>178.2903053473386</v>
+        <v>126.1794557599106</v>
       </c>
       <c r="T34" t="n">
         <v>223.6527070698127</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>46.15113666795165</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>185.1117208175786</v>
       </c>
       <c r="C35" t="n">
-        <v>167.6507709251055</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>341.15957312297</v>
       </c>
       <c r="F35" t="n">
         <v>209.2539248958094</v>
@@ -25174,7 +25174,7 @@
         <v>316.5359943007448</v>
       </c>
       <c r="I35" t="n">
-        <v>117.2088153602715</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>157.9796123095633</v>
       </c>
       <c r="T35" t="n">
         <v>213.2909301245844</v>
@@ -25216,13 +25216,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>151.618847871511</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>188.6158178101516</v>
       </c>
     </row>
     <row r="36">
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>86.5669162660795</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25244,13 +25244,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>136.145094685459</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>100.6612060961061</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>48.1351571919853</v>
@@ -25286,7 +25286,7 @@
         <v>149.4229992034958</v>
       </c>
       <c r="T36" t="n">
-        <v>72.73414719069889</v>
+        <v>195.3342451112527</v>
       </c>
       <c r="U36" t="n">
         <v>225.8625384969122</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>27.21716053996013</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.986262210732</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.2943236849236</v>
       </c>
       <c r="I37" t="n">
         <v>125.2358901574395</v>
@@ -25365,19 +25365,19 @@
         <v>206.5071182897707</v>
       </c>
       <c r="T37" t="n">
-        <v>223.6527070698127</v>
+        <v>198.2026160469546</v>
       </c>
       <c r="U37" t="n">
         <v>286.2642266029785</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>54.515522477926</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>88.900877490689</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>28.08753454313515</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25402,13 +25402,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>241.9809655482578</v>
       </c>
       <c r="G38" t="n">
         <v>413.0628929829713</v>
       </c>
       <c r="H38" t="n">
-        <v>316.5359943007448</v>
+        <v>118.9138734548428</v>
       </c>
       <c r="I38" t="n">
         <v>124.1242832441619</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>157.9796123095633</v>
       </c>
       <c r="T38" t="n">
         <v>15.66880927868243</v>
       </c>
       <c r="U38" t="n">
-        <v>244.250997461373</v>
+        <v>53.54434449936139</v>
       </c>
       <c r="V38" t="n">
-        <v>130.1301376242329</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>151.618847871511</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25469,22 +25469,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.145094685459</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>100.6612060961061</v>
@@ -25517,22 +25517,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.75051575329434</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>78.16173143065875</v>
+        <v>81.25048654755788</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>195.3342451112527</v>
       </c>
       <c r="U39" t="n">
-        <v>28.2404176510102</v>
+        <v>225.8625384969122</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>54.0728623150176</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.986262210732</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.2943236849236</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>125.2358901574395</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.030682817957711</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>132.1176548984743</v>
@@ -25602,16 +25602,16 @@
         <v>206.5071182897707</v>
       </c>
       <c r="T40" t="n">
-        <v>49.58714302874219</v>
+        <v>223.6527070698127</v>
       </c>
       <c r="U40" t="n">
-        <v>88.64210575707651</v>
+        <v>286.2642266029785</v>
       </c>
       <c r="V40" t="n">
         <v>54.515522477926</v>
       </c>
       <c r="W40" t="n">
-        <v>88.900877490689</v>
+        <v>184.9455093402612</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>185.1117208175786</v>
       </c>
       <c r="C41" t="n">
-        <v>167.6507709251055</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>347.7675737367925</v>
+        <v>157.060920774781</v>
       </c>
       <c r="E41" t="n">
-        <v>184.3082492263598</v>
+        <v>365.8444183407545</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>9.170483847616794</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>213.2909301245844</v>
+        <v>15.66880927868243</v>
       </c>
       <c r="U41" t="n">
-        <v>53.54434449936139</v>
+        <v>251.1664653452634</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25718,7 +25718,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25757,16 +25757,16 @@
         <v>25.75051575329434</v>
       </c>
       <c r="S42" t="n">
-        <v>149.4229992034958</v>
+        <v>109.2146541132351</v>
       </c>
       <c r="T42" t="n">
-        <v>195.3342451112527</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>135.3891606887826</v>
+        <v>28.2404176510102</v>
       </c>
       <c r="V42" t="n">
-        <v>35.17846630352327</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>54.0728623150176</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>21.62771834315183</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>153.2943236849236</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>223.6527070698127</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2642266029785</v>
+        <v>88.64210575707651</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>88.900877490689</v>
+        <v>176.6821660705159</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25873,10 +25873,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>207.8648060311913</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>209.2539248958094</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>215.4407721370693</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>9.170483847616794</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>157.9796123095633</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>213.2909301245844</v>
+        <v>206.375462240694</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1664653452634</v>
+        <v>53.54434449936139</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>151.618847871511</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>188.6158178101516</v>
       </c>
     </row>
     <row r="45">
@@ -25955,13 +25955,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.145094685459</v>
       </c>
       <c r="H45" t="n">
-        <v>7.899952553327296</v>
+        <v>100.6612060961061</v>
       </c>
       <c r="I45" t="n">
         <v>48.1351571919853</v>
@@ -25997,7 +25997,7 @@
         <v>149.4229992034958</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>195.3342451112527</v>
       </c>
       <c r="U45" t="n">
         <v>225.8625384969122</v>
@@ -26006,13 +26006,13 @@
         <v>35.17846630352327</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>54.0728623150176</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>8.150864357575472</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>31.61713173623386</v>
       </c>
     </row>
     <row r="46">
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>73.82879116612258</v>
+        <v>166.986262210732</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>153.2943236849236</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>125.2358901574395</v>
       </c>
       <c r="J46" t="n">
         <v>22.32567777239203</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.030682817957711</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>132.1176548984743</v>
       </c>
       <c r="S46" t="n">
-        <v>206.5071182897707</v>
+        <v>34.47223706665801</v>
       </c>
       <c r="T46" t="n">
         <v>223.6527070698127</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2642266029785</v>
+        <v>88.64210575707651</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>389446.2462777484</v>
+        <v>389446.2462777485</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>389446.2462777486</v>
+        <v>389446.2462777485</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>389446.2462777486</v>
+        <v>389446.2462777485</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>425394.810045547</v>
+        <v>425394.8100455471</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>425394.810045547</v>
+        <v>425394.8100455471</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>425394.8100455472</v>
+        <v>425394.8100455471</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>425394.8100455469</v>
+        <v>425394.8100455471</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>389446.2462777486</v>
+        <v>389446.2462777487</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>389446.2462777485</v>
+        <v>389446.2462777484</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>389446.2462777486</v>
+        <v>389446.2462777485</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>593975.3455698527</v>
       </c>
       <c r="C2" t="n">
-        <v>593975.3455698526</v>
+        <v>593975.345569853</v>
       </c>
       <c r="D2" t="n">
         <v>593975.3455698525</v>
@@ -26328,13 +26328,13 @@
         <v>266215.65787594</v>
       </c>
       <c r="G2" t="n">
-        <v>266215.65787594</v>
+        <v>266215.6578759399</v>
       </c>
       <c r="H2" t="n">
         <v>266215.65787594</v>
       </c>
       <c r="I2" t="n">
-        <v>283776.5109804095</v>
+        <v>283776.5109804096</v>
       </c>
       <c r="J2" t="n">
         <v>283776.5109804095</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>506630.6994955789</v>
+        <v>506630.6994955791</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11368.05382932318</v>
+        <v>11368.05382932314</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>38594.81659129275</v>
+        <v>38594.81659129253</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>441649.2499958205</v>
       </c>
       <c r="E4" t="n">
-        <v>13243.75346431769</v>
+        <v>13243.75346431768</v>
       </c>
       <c r="F4" t="n">
         <v>13243.75346431767</v>
@@ -26438,10 +26438,10 @@
         <v>13243.75346431768</v>
       </c>
       <c r="I4" t="n">
-        <v>24401.97472487583</v>
+        <v>24401.97472487582</v>
       </c>
       <c r="J4" t="n">
-        <v>24401.97472487583</v>
+        <v>24401.97472487582</v>
       </c>
       <c r="K4" t="n">
         <v>24401.97472487582</v>
@@ -26484,19 +26484,19 @@
         <v>24161.54188422196</v>
       </c>
       <c r="G5" t="n">
-        <v>24161.54188422196</v>
+        <v>24161.54188422197</v>
       </c>
       <c r="H5" t="n">
-        <v>24161.54188422196</v>
+        <v>24161.54188422197</v>
       </c>
       <c r="I5" t="n">
-        <v>26760.7261262444</v>
+        <v>26760.72612624439</v>
       </c>
       <c r="J5" t="n">
-        <v>26760.7261262444</v>
+        <v>26760.72612624439</v>
       </c>
       <c r="K5" t="n">
-        <v>26760.7261262444</v>
+        <v>26760.72612624439</v>
       </c>
       <c r="L5" t="n">
         <v>26760.72612624439</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>118698.4955740323</v>
+        <v>118654.3597953511</v>
       </c>
       <c r="C6" t="n">
-        <v>118698.4955740321</v>
+        <v>118654.3597953513</v>
       </c>
       <c r="D6" t="n">
-        <v>118698.495574032</v>
+        <v>118654.3597953509</v>
       </c>
       <c r="E6" t="n">
-        <v>-277820.3369681786</v>
+        <v>-289166.5309432016</v>
       </c>
       <c r="F6" t="n">
-        <v>228810.3625274004</v>
+        <v>217464.1685523774</v>
       </c>
       <c r="G6" t="n">
-        <v>228810.3625274003</v>
+        <v>217464.1685523773</v>
       </c>
       <c r="H6" t="n">
-        <v>228810.3625274004</v>
+        <v>217464.1685523774</v>
       </c>
       <c r="I6" t="n">
-        <v>221245.7562999661</v>
+        <v>210505.1089837181</v>
       </c>
       <c r="J6" t="n">
-        <v>232613.8101292893</v>
+        <v>221873.1628130411</v>
       </c>
       <c r="K6" t="n">
-        <v>232613.8101292893</v>
+        <v>221873.1628130412</v>
       </c>
       <c r="L6" t="n">
-        <v>232613.8101292893</v>
+        <v>221873.1628130411</v>
       </c>
       <c r="M6" t="n">
-        <v>190215.5459361076</v>
+        <v>178869.3519610849</v>
       </c>
       <c r="N6" t="n">
-        <v>228810.3625274004</v>
+        <v>217464.1685523774</v>
       </c>
       <c r="O6" t="n">
-        <v>228810.3625274003</v>
+        <v>217464.1685523774</v>
       </c>
       <c r="P6" t="n">
-        <v>228810.3625274004</v>
+        <v>217464.1685523774</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>557.1613273757395</v>
+        <v>557.1613273757396</v>
       </c>
       <c r="F3" t="n">
         <v>557.1613273757396</v>
       </c>
       <c r="G3" t="n">
+        <v>557.1613273757397</v>
+      </c>
+      <c r="H3" t="n">
         <v>557.1613273757396</v>
-      </c>
-      <c r="H3" t="n">
-        <v>557.1613273757395</v>
       </c>
       <c r="I3" t="n">
         <v>557.1613273757396</v>
@@ -26804,10 +26804,10 @@
         <v>197.6221208459019</v>
       </c>
       <c r="G4" t="n">
-        <v>197.6221208459019</v>
+        <v>197.622120845902</v>
       </c>
       <c r="H4" t="n">
-        <v>197.6221208459019</v>
+        <v>197.622120845902</v>
       </c>
       <c r="I4" t="n">
         <v>240.3718616686394</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>557.1613273757395</v>
+        <v>557.1613273757396</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>42.74974082273749</v>
+        <v>42.74974082273735</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>154.8723800231648</v>
+        <v>154.8723800231639</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,31 +31758,31 @@
         <v>22.93880781502227</v>
       </c>
       <c r="I11" t="n">
-        <v>86.35160632624402</v>
+        <v>86.35160632624404</v>
       </c>
       <c r="J11" t="n">
         <v>190.1040048617354</v>
       </c>
       <c r="K11" t="n">
-        <v>284.916623908228</v>
+        <v>284.9166239082281</v>
       </c>
       <c r="L11" t="n">
-        <v>353.4642660094352</v>
+        <v>353.4642660094353</v>
       </c>
       <c r="M11" t="n">
         <v>393.2971012083028</v>
       </c>
       <c r="N11" t="n">
-        <v>399.6610594853131</v>
+        <v>399.6610594853132</v>
       </c>
       <c r="O11" t="n">
-        <v>377.3886054186095</v>
+        <v>377.3886054186096</v>
       </c>
       <c r="P11" t="n">
-        <v>322.0924435308163</v>
+        <v>322.0924435308164</v>
       </c>
       <c r="Q11" t="n">
-        <v>241.878011222701</v>
+        <v>241.8780112227011</v>
       </c>
       <c r="R11" t="n">
         <v>140.6986340935329</v>
@@ -31791,7 +31791,7 @@
         <v>51.04045727668208</v>
       </c>
       <c r="T11" t="n">
-        <v>9.80491943954693</v>
+        <v>9.804919439546932</v>
       </c>
       <c r="U11" t="n">
         <v>0.179187562573102</v>
@@ -31834,46 +31834,46 @@
         <v>1.198422477751591</v>
       </c>
       <c r="H12" t="n">
-        <v>11.57423814039036</v>
+        <v>11.57423814039037</v>
       </c>
       <c r="I12" t="n">
-        <v>41.26147565942977</v>
+        <v>41.26147565942978</v>
       </c>
       <c r="J12" t="n">
         <v>113.2246429528378</v>
       </c>
       <c r="K12" t="n">
-        <v>193.5189489621943</v>
+        <v>193.5189489621944</v>
       </c>
       <c r="L12" t="n">
         <v>260.2101086012829</v>
       </c>
       <c r="M12" t="n">
-        <v>303.6529234197779</v>
+        <v>303.652923419778</v>
       </c>
       <c r="N12" t="n">
-        <v>311.6897127552262</v>
+        <v>311.6897127552263</v>
       </c>
       <c r="O12" t="n">
-        <v>285.1351936429409</v>
+        <v>285.135193642941</v>
       </c>
       <c r="P12" t="n">
         <v>228.8461308611788</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.977578037203</v>
+        <v>152.9775780372031</v>
       </c>
       <c r="R12" t="n">
-        <v>74.40731839934878</v>
+        <v>74.4073183993488</v>
       </c>
       <c r="S12" t="n">
         <v>22.26017190034203</v>
       </c>
       <c r="T12" t="n">
-        <v>4.83048358356891</v>
+        <v>4.830483583568911</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07884358406260468</v>
+        <v>0.07884358406260469</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,13 +31913,13 @@
         <v>1.004717147726743</v>
       </c>
       <c r="H13" t="n">
-        <v>8.932848822515959</v>
+        <v>8.932848822515961</v>
       </c>
       <c r="I13" t="n">
         <v>30.2145847698188</v>
       </c>
       <c r="J13" t="n">
-        <v>71.03350234428073</v>
+        <v>71.03350234428075</v>
       </c>
       <c r="K13" t="n">
         <v>116.7298649813434</v>
@@ -31940,7 +31940,7 @@
         <v>121.5159721214235</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.13136043373666</v>
+        <v>84.13136043373667</v>
       </c>
       <c r="R13" t="n">
         <v>45.17573647869519</v>
@@ -31949,10 +31949,10 @@
         <v>17.50947974720151</v>
       </c>
       <c r="T13" t="n">
-        <v>4.292882358468811</v>
+        <v>4.292882358468812</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05480275351236787</v>
+        <v>0.05480275351236789</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,31 +32226,31 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.239844532163775</v>
+        <v>2.239844532163776</v>
       </c>
       <c r="H17" t="n">
-        <v>22.93880781502227</v>
+        <v>22.93880781502228</v>
       </c>
       <c r="I17" t="n">
-        <v>86.35160632624404</v>
+        <v>86.35160632624405</v>
       </c>
       <c r="J17" t="n">
-        <v>190.1040048617354</v>
+        <v>190.1040048617355</v>
       </c>
       <c r="K17" t="n">
         <v>284.9166239082281</v>
       </c>
       <c r="L17" t="n">
-        <v>353.4642660094353</v>
+        <v>353.4642660094354</v>
       </c>
       <c r="M17" t="n">
-        <v>393.2971012083028</v>
+        <v>393.2971012083029</v>
       </c>
       <c r="N17" t="n">
-        <v>399.6610594853132</v>
+        <v>399.6610594853133</v>
       </c>
       <c r="O17" t="n">
-        <v>377.3886054186096</v>
+        <v>377.3886054186097</v>
       </c>
       <c r="P17" t="n">
         <v>322.0924435308164</v>
@@ -32262,10 +32262,10 @@
         <v>140.6986340935329</v>
       </c>
       <c r="S17" t="n">
-        <v>51.04045727668208</v>
+        <v>51.0404572766821</v>
       </c>
       <c r="T17" t="n">
-        <v>9.804919439546932</v>
+        <v>9.804919439546934</v>
       </c>
       <c r="U17" t="n">
         <v>0.179187562573102</v>
@@ -32320,10 +32320,10 @@
         <v>193.5189489621944</v>
       </c>
       <c r="L18" t="n">
-        <v>260.2101086012829</v>
+        <v>260.210108601283</v>
       </c>
       <c r="M18" t="n">
-        <v>303.652923419778</v>
+        <v>303.6529234197781</v>
       </c>
       <c r="N18" t="n">
         <v>311.6897127552263</v>
@@ -32338,16 +32338,16 @@
         <v>152.9775780372031</v>
       </c>
       <c r="R18" t="n">
-        <v>74.4073183993488</v>
+        <v>74.40731839934881</v>
       </c>
       <c r="S18" t="n">
-        <v>22.26017190034203</v>
+        <v>22.26017190034204</v>
       </c>
       <c r="T18" t="n">
         <v>4.830483583568911</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07884358406260469</v>
+        <v>0.07884358406260471</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,43 +32384,43 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.004717147726743</v>
+        <v>1.004717147726744</v>
       </c>
       <c r="H19" t="n">
-        <v>8.932848822515961</v>
+        <v>8.932848822515963</v>
       </c>
       <c r="I19" t="n">
-        <v>30.2145847698188</v>
+        <v>30.21458476981881</v>
       </c>
       <c r="J19" t="n">
-        <v>71.03350234428075</v>
+        <v>71.03350234428076</v>
       </c>
       <c r="K19" t="n">
-        <v>116.7298649813434</v>
+        <v>116.7298649813435</v>
       </c>
       <c r="L19" t="n">
         <v>149.3740384902106</v>
       </c>
       <c r="M19" t="n">
-        <v>157.493979802293</v>
+        <v>157.4939798022931</v>
       </c>
       <c r="N19" t="n">
-        <v>153.749124978948</v>
+        <v>153.7491249789481</v>
       </c>
       <c r="O19" t="n">
         <v>142.0122019350492</v>
       </c>
       <c r="P19" t="n">
-        <v>121.5159721214235</v>
+        <v>121.5159721214236</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.13136043373667</v>
+        <v>84.13136043373669</v>
       </c>
       <c r="R19" t="n">
-        <v>45.17573647869519</v>
+        <v>45.17573647869521</v>
       </c>
       <c r="S19" t="n">
-        <v>17.50947974720151</v>
+        <v>17.50947974720152</v>
       </c>
       <c r="T19" t="n">
         <v>4.292882358468812</v>
@@ -32469,31 +32469,31 @@
         <v>22.93880781502227</v>
       </c>
       <c r="I20" t="n">
-        <v>86.35160632624402</v>
+        <v>86.35160632624404</v>
       </c>
       <c r="J20" t="n">
         <v>190.1040048617354</v>
       </c>
       <c r="K20" t="n">
-        <v>284.916623908228</v>
+        <v>284.9166239082281</v>
       </c>
       <c r="L20" t="n">
-        <v>353.4642660094352</v>
+        <v>353.4642660094353</v>
       </c>
       <c r="M20" t="n">
         <v>393.2971012083028</v>
       </c>
       <c r="N20" t="n">
-        <v>399.6610594853131</v>
+        <v>399.6610594853132</v>
       </c>
       <c r="O20" t="n">
-        <v>377.3886054186095</v>
+        <v>377.3886054186096</v>
       </c>
       <c r="P20" t="n">
-        <v>322.0924435308163</v>
+        <v>322.0924435308164</v>
       </c>
       <c r="Q20" t="n">
-        <v>241.878011222701</v>
+        <v>241.8780112227011</v>
       </c>
       <c r="R20" t="n">
         <v>140.6986340935329</v>
@@ -32502,7 +32502,7 @@
         <v>51.04045727668208</v>
       </c>
       <c r="T20" t="n">
-        <v>9.80491943954693</v>
+        <v>9.804919439546932</v>
       </c>
       <c r="U20" t="n">
         <v>0.179187562573102</v>
@@ -32545,46 +32545,46 @@
         <v>1.198422477751591</v>
       </c>
       <c r="H21" t="n">
-        <v>11.57423814039036</v>
+        <v>11.57423814039037</v>
       </c>
       <c r="I21" t="n">
-        <v>41.26147565942977</v>
+        <v>41.26147565942978</v>
       </c>
       <c r="J21" t="n">
         <v>113.2246429528378</v>
       </c>
       <c r="K21" t="n">
-        <v>193.5189489621943</v>
+        <v>193.5189489621944</v>
       </c>
       <c r="L21" t="n">
         <v>260.2101086012829</v>
       </c>
       <c r="M21" t="n">
-        <v>303.6529234197779</v>
+        <v>303.652923419778</v>
       </c>
       <c r="N21" t="n">
-        <v>311.6897127552262</v>
+        <v>311.6897127552263</v>
       </c>
       <c r="O21" t="n">
-        <v>285.1351936429409</v>
+        <v>285.135193642941</v>
       </c>
       <c r="P21" t="n">
         <v>228.8461308611788</v>
       </c>
       <c r="Q21" t="n">
-        <v>152.977578037203</v>
+        <v>152.9775780372031</v>
       </c>
       <c r="R21" t="n">
-        <v>74.40731839934878</v>
+        <v>74.4073183993488</v>
       </c>
       <c r="S21" t="n">
         <v>22.26017190034203</v>
       </c>
       <c r="T21" t="n">
-        <v>4.83048358356891</v>
+        <v>4.830483583568911</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07884358406260468</v>
+        <v>0.07884358406260469</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,13 +32624,13 @@
         <v>1.004717147726743</v>
       </c>
       <c r="H22" t="n">
-        <v>8.932848822515959</v>
+        <v>8.932848822515961</v>
       </c>
       <c r="I22" t="n">
         <v>30.2145847698188</v>
       </c>
       <c r="J22" t="n">
-        <v>71.03350234428073</v>
+        <v>71.03350234428075</v>
       </c>
       <c r="K22" t="n">
         <v>116.7298649813434</v>
@@ -32651,7 +32651,7 @@
         <v>121.5159721214235</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.13136043373666</v>
+        <v>84.13136043373667</v>
       </c>
       <c r="R22" t="n">
         <v>45.17573647869519</v>
@@ -32660,10 +32660,10 @@
         <v>17.50947974720151</v>
       </c>
       <c r="T22" t="n">
-        <v>4.292882358468811</v>
+        <v>4.292882358468812</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05480275351236787</v>
+        <v>0.05480275351236789</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34149,7 +34149,7 @@
         <v>377.3886054186096</v>
       </c>
       <c r="P41" t="n">
-        <v>322.0924435308164</v>
+        <v>322.092443530816</v>
       </c>
       <c r="Q41" t="n">
         <v>241.8780112227011</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>9.05810033504909</v>
+        <v>9.058100335049119</v>
       </c>
       <c r="K11" t="n">
-        <v>64.82677286324747</v>
+        <v>64.82677286324753</v>
       </c>
       <c r="L11" t="n">
         <v>117.697851039448</v>
       </c>
       <c r="M11" t="n">
-        <v>162.95086798103</v>
+        <v>162.9508679810301</v>
       </c>
       <c r="N11" t="n">
-        <v>170.2479958887222</v>
+        <v>170.2479958887223</v>
       </c>
       <c r="O11" t="n">
-        <v>147.2903939969228</v>
+        <v>147.2903939969229</v>
       </c>
       <c r="P11" t="n">
-        <v>90.85944777554676</v>
+        <v>90.85944777554681</v>
       </c>
       <c r="Q11" t="n">
-        <v>19.57232134825153</v>
+        <v>19.57232134825159</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>68.57465564063038</v>
+        <v>55.67750998783541</v>
       </c>
       <c r="L12" t="n">
         <v>121.6557288214087</v>
       </c>
       <c r="M12" t="n">
-        <v>161.5188894977596</v>
+        <v>161.5188894977597</v>
       </c>
       <c r="N12" t="n">
         <v>180.3480006718929</v>
@@ -35506,10 +35506,10 @@
         <v>142.5389491984965</v>
       </c>
       <c r="P12" t="n">
-        <v>94.87172344684851</v>
+        <v>94.87172344684856</v>
       </c>
       <c r="Q12" t="n">
-        <v>12.99580395118153</v>
+        <v>25.89294960397617</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>94.46037315546059</v>
       </c>
       <c r="L13" t="n">
         <v>176.9640637505267</v>
@@ -35579,7 +35579,7 @@
         <v>197.0778567641336</v>
       </c>
       <c r="N13" t="n">
-        <v>123.0699694781518</v>
+        <v>28.60959632269102</v>
       </c>
       <c r="O13" t="n">
         <v>166.5973298490889</v>
@@ -35807,10 +35807,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>44.24238001856658</v>
       </c>
       <c r="L16" t="n">
-        <v>102.4119123827763</v>
+        <v>176.9640637505267</v>
       </c>
       <c r="M16" t="n">
         <v>197.0778567641336</v>
@@ -35822,7 +35822,7 @@
         <v>166.5973298490889</v>
       </c>
       <c r="P16" t="n">
-        <v>118.794531386317</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>9.058100335049119</v>
+        <v>9.058100335049176</v>
       </c>
       <c r="K17" t="n">
-        <v>64.82677286324753</v>
+        <v>64.82677286324758</v>
       </c>
       <c r="L17" t="n">
-        <v>117.697851039448</v>
+        <v>117.6978510394482</v>
       </c>
       <c r="M17" t="n">
-        <v>162.9508679810301</v>
+        <v>162.9508679810302</v>
       </c>
       <c r="N17" t="n">
-        <v>170.2479958887223</v>
+        <v>170.2479958887224</v>
       </c>
       <c r="O17" t="n">
-        <v>147.2903939969229</v>
+        <v>147.290393996923</v>
       </c>
       <c r="P17" t="n">
-        <v>90.85944777554681</v>
+        <v>90.85944777554687</v>
       </c>
       <c r="Q17" t="n">
-        <v>19.57232134825159</v>
+        <v>19.57232134825165</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>55.67750998783541</v>
+        <v>55.67750998783544</v>
       </c>
       <c r="L18" t="n">
-        <v>121.6557288214087</v>
+        <v>121.6557288214088</v>
       </c>
       <c r="M18" t="n">
-        <v>161.5188894977597</v>
+        <v>174.4160351505541</v>
       </c>
       <c r="N18" t="n">
-        <v>180.3480006718929</v>
+        <v>180.348000671893</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5389491984965</v>
+        <v>142.5389491984966</v>
       </c>
       <c r="P18" t="n">
-        <v>94.87172344684856</v>
+        <v>94.87172344684859</v>
       </c>
       <c r="Q18" t="n">
-        <v>25.89294960397606</v>
+        <v>12.99580395118159</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36050,16 +36050,16 @@
         <v>176.9640637505267</v>
       </c>
       <c r="M19" t="n">
-        <v>197.0778567641336</v>
+        <v>197.0778567641337</v>
       </c>
       <c r="N19" t="n">
-        <v>197.6221208459019</v>
+        <v>197.622120845902</v>
       </c>
       <c r="O19" t="n">
         <v>166.5973298490889</v>
       </c>
       <c r="P19" t="n">
-        <v>44.24238001856655</v>
+        <v>44.24238001856678</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>9.05810033504909</v>
+        <v>9.058100335049119</v>
       </c>
       <c r="K20" t="n">
-        <v>64.82677286324747</v>
+        <v>64.82677286324753</v>
       </c>
       <c r="L20" t="n">
         <v>117.697851039448</v>
       </c>
       <c r="M20" t="n">
-        <v>162.95086798103</v>
+        <v>162.9508679810301</v>
       </c>
       <c r="N20" t="n">
-        <v>170.2479958887222</v>
+        <v>170.2479958887223</v>
       </c>
       <c r="O20" t="n">
-        <v>147.2903939969228</v>
+        <v>147.2903939969229</v>
       </c>
       <c r="P20" t="n">
-        <v>90.85944777554676</v>
+        <v>90.85944777554681</v>
       </c>
       <c r="Q20" t="n">
-        <v>19.57232134825153</v>
+        <v>19.57232134825159</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>12.89714565279458</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>55.67750998783535</v>
+        <v>55.67750998783541</v>
       </c>
       <c r="L21" t="n">
         <v>121.6557288214087</v>
       </c>
       <c r="M21" t="n">
-        <v>161.5188894977596</v>
+        <v>161.5188894977597</v>
       </c>
       <c r="N21" t="n">
-        <v>180.3480006718929</v>
+        <v>193.2451463246876</v>
       </c>
       <c r="O21" t="n">
         <v>142.5389491984965</v>
       </c>
       <c r="P21" t="n">
-        <v>94.87172344684851</v>
+        <v>94.87172344684856</v>
       </c>
       <c r="Q21" t="n">
-        <v>12.99580395118153</v>
+        <v>12.99580395118156</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36290,13 +36290,13 @@
         <v>197.0778567641336</v>
       </c>
       <c r="N22" t="n">
-        <v>123.0699694781514</v>
+        <v>197.622120845902</v>
       </c>
       <c r="O22" t="n">
         <v>166.5973298490889</v>
       </c>
       <c r="P22" t="n">
-        <v>118.794531386317</v>
+        <v>44.24238001856678</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>9.058100335049119</v>
+        <v>178.1547155071229</v>
       </c>
       <c r="K23" t="n">
-        <v>64.82677286324753</v>
+        <v>65.00185872665865</v>
       </c>
       <c r="L23" t="n">
         <v>117.697851039448</v>
@@ -36378,7 +36378,7 @@
         <v>90.85944777554681</v>
       </c>
       <c r="Q23" t="n">
-        <v>188.8440223837366</v>
+        <v>19.57232134825159</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>112.47805162658</v>
       </c>
       <c r="K24" t="n">
-        <v>55.67750998783541</v>
+        <v>125.3683050495353</v>
       </c>
       <c r="L24" t="n">
         <v>121.6557288214087</v>
@@ -36454,10 +36454,10 @@
         <v>142.5389491984965</v>
       </c>
       <c r="P24" t="n">
-        <v>240.3718616686394</v>
+        <v>94.87172344684856</v>
       </c>
       <c r="Q24" t="n">
-        <v>49.66451241767065</v>
+        <v>12.99580395118156</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>94.46037315546049</v>
+        <v>94.46037315546059</v>
       </c>
       <c r="L25" t="n">
         <v>176.9640637505267</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>9.058100335049119</v>
+        <v>178.1547155071229</v>
       </c>
       <c r="K26" t="n">
-        <v>86.5536144312061</v>
+        <v>65.00185872665865</v>
       </c>
       <c r="L26" t="n">
         <v>117.697851039448</v>
       </c>
       <c r="M26" t="n">
-        <v>240.3718616686394</v>
+        <v>162.9508679810301</v>
       </c>
       <c r="N26" t="n">
-        <v>240.3718616686394</v>
+        <v>170.2479958887223</v>
       </c>
       <c r="O26" t="n">
         <v>147.2903939969229</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>112.47805162658</v>
       </c>
       <c r="K27" t="n">
         <v>55.67750998783541</v>
@@ -36682,10 +36682,10 @@
         <v>121.6557288214087</v>
       </c>
       <c r="M27" t="n">
-        <v>240.3718616686394</v>
+        <v>161.5188894977597</v>
       </c>
       <c r="N27" t="n">
-        <v>240.3718616686394</v>
+        <v>180.3480006718929</v>
       </c>
       <c r="O27" t="n">
         <v>142.5389491984965</v>
@@ -36694,7 +36694,7 @@
         <v>94.87172344684856</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.28781747183533</v>
+        <v>82.68659901288142</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>9.058100335049119</v>
+        <v>178.1547155071229</v>
       </c>
       <c r="K29" t="n">
         <v>64.82677286324753</v>
@@ -36852,7 +36852,7 @@
         <v>90.85944777554681</v>
       </c>
       <c r="Q29" t="n">
-        <v>188.8440223837366</v>
+        <v>19.74740721166268</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>112.47805162658</v>
       </c>
       <c r="K30" t="n">
         <v>55.67750998783541</v>
       </c>
       <c r="L30" t="n">
-        <v>205.9916630395458</v>
+        <v>121.6557288214087</v>
       </c>
       <c r="M30" t="n">
         <v>161.5188894977597</v>
@@ -36925,13 +36925,13 @@
         <v>180.3480006718929</v>
       </c>
       <c r="O30" t="n">
-        <v>240.3718616686394</v>
+        <v>142.5389491984965</v>
       </c>
       <c r="P30" t="n">
         <v>94.87172344684856</v>
       </c>
       <c r="Q30" t="n">
-        <v>12.99580395118156</v>
+        <v>82.68659901288142</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>90.85944777554681</v>
       </c>
       <c r="Q35" t="n">
-        <v>19.57232134825127</v>
+        <v>19.57232134825159</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>12.89714565279463</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>55.67750998783541</v>
@@ -37402,7 +37402,7 @@
         <v>142.5389491984965</v>
       </c>
       <c r="P36" t="n">
-        <v>94.87172344684856</v>
+        <v>107.7688690996432</v>
       </c>
       <c r="Q36" t="n">
         <v>12.99580395118156</v>
@@ -37548,7 +37548,7 @@
         <v>64.82677286324753</v>
       </c>
       <c r="L38" t="n">
-        <v>117.697851039448</v>
+        <v>117.6978510394476</v>
       </c>
       <c r="M38" t="n">
         <v>162.9508679810301</v>
@@ -37636,10 +37636,10 @@
         <v>180.3480006718929</v>
       </c>
       <c r="O39" t="n">
-        <v>155.4360948512912</v>
+        <v>142.5389491984965</v>
       </c>
       <c r="P39" t="n">
-        <v>94.87172344684856</v>
+        <v>107.7688690996432</v>
       </c>
       <c r="Q39" t="n">
         <v>12.99580395118156</v>
@@ -37709,7 +37709,7 @@
         <v>176.9640637505267</v>
       </c>
       <c r="M40" t="n">
-        <v>197.0778567641336</v>
+        <v>122.5257053963833</v>
       </c>
       <c r="N40" t="n">
         <v>197.622120845902</v>
@@ -37718,7 +37718,7 @@
         <v>166.5973298490889</v>
       </c>
       <c r="P40" t="n">
-        <v>44.24238001856678</v>
+        <v>118.794531386317</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37797,7 +37797,7 @@
         <v>147.2903939969229</v>
       </c>
       <c r="P41" t="n">
-        <v>90.85944777554681</v>
+        <v>90.85944777554649</v>
       </c>
       <c r="Q41" t="n">
         <v>19.57232134825159</v>
@@ -37861,13 +37861,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>68.57465564063004</v>
+        <v>55.67750998783541</v>
       </c>
       <c r="L42" t="n">
         <v>121.6557288214087</v>
       </c>
       <c r="M42" t="n">
-        <v>161.5188894977597</v>
+        <v>174.4160351505543</v>
       </c>
       <c r="N42" t="n">
         <v>180.3480006718929</v>
@@ -38025,7 +38025,7 @@
         <v>117.697851039448</v>
       </c>
       <c r="M44" t="n">
-        <v>162.9508679810301</v>
+        <v>162.9508679810297</v>
       </c>
       <c r="N44" t="n">
         <v>170.2479958887223</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>68.57465564063004</v>
+        <v>55.67750998783541</v>
       </c>
       <c r="L45" t="n">
         <v>121.6557288214087</v>
@@ -38116,7 +38116,7 @@
         <v>94.87172344684856</v>
       </c>
       <c r="Q45" t="n">
-        <v>12.99580395118156</v>
+        <v>25.89294960397628</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
